--- a/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9996112452521706</v>
+        <v>1.00392433626681</v>
       </c>
       <c r="D2">
-        <v>1.019158455329966</v>
+        <v>1.020387998753988</v>
       </c>
       <c r="E2">
-        <v>1.00366959070717</v>
+        <v>1.017614042281583</v>
       </c>
       <c r="F2">
-        <v>1.016114670283642</v>
+        <v>1.02429492032231</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046089988260743</v>
+        <v>1.043718119926018</v>
       </c>
       <c r="J2">
-        <v>1.021803590128431</v>
+        <v>1.025988301331111</v>
       </c>
       <c r="K2">
-        <v>1.030357182041667</v>
+        <v>1.031570419634337</v>
       </c>
       <c r="L2">
-        <v>1.01507803794747</v>
+        <v>1.028833320629893</v>
       </c>
       <c r="M2">
-        <v>1.027353975977245</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.035425854453054</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008330954345299</v>
+        <v>1.010659799298945</v>
       </c>
       <c r="D3">
-        <v>1.026088969200767</v>
+        <v>1.025416264035243</v>
       </c>
       <c r="E3">
-        <v>1.011235556241992</v>
+        <v>1.023374208065132</v>
       </c>
       <c r="F3">
-        <v>1.02430455153881</v>
+        <v>1.030453972833083</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049583743518433</v>
+        <v>1.045552626985228</v>
       </c>
       <c r="J3">
-        <v>1.028597057144514</v>
+        <v>1.030864026242049</v>
       </c>
       <c r="K3">
-        <v>1.036398573911043</v>
+        <v>1.035733947964507</v>
       </c>
       <c r="L3">
-        <v>1.021726666466745</v>
+        <v>1.033716497951662</v>
       </c>
       <c r="M3">
-        <v>1.034635616055997</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.040711471296798</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013770227720284</v>
+        <v>1.014900073583725</v>
       </c>
       <c r="D4">
-        <v>1.030415003922769</v>
+        <v>1.028583655085399</v>
       </c>
       <c r="E4">
-        <v>1.015955243426113</v>
+        <v>1.027006803602899</v>
       </c>
       <c r="F4">
-        <v>1.029422218303459</v>
+        <v>1.034338601293915</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051748358103965</v>
+        <v>1.046695583957022</v>
       </c>
       <c r="J4">
-        <v>1.032828130357303</v>
+        <v>1.033930163765717</v>
       </c>
       <c r="K4">
-        <v>1.040159698216714</v>
+        <v>1.038348918866646</v>
       </c>
       <c r="L4">
-        <v>1.025864842288503</v>
+        <v>1.03678985081294</v>
       </c>
       <c r="M4">
-        <v>1.039178052258263</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.044039527831084</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016011535314061</v>
+        <v>1.016655861683157</v>
       </c>
       <c r="D5">
-        <v>1.032198142048091</v>
+        <v>1.02989553723899</v>
       </c>
       <c r="E5">
-        <v>1.017899973429065</v>
+        <v>1.028512403114292</v>
       </c>
       <c r="F5">
-        <v>1.031533025910758</v>
+        <v>1.035948781478035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052636700407833</v>
+        <v>1.047165926250647</v>
       </c>
       <c r="J5">
-        <v>1.034569928508579</v>
+        <v>1.035198906711467</v>
       </c>
       <c r="K5">
-        <v>1.041707635091053</v>
+        <v>1.039430155907153</v>
       </c>
       <c r="L5">
-        <v>1.027567749669669</v>
+        <v>1.03806218073292</v>
       </c>
       <c r="M5">
-        <v>1.04104976244526</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.045417641405194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016385288256429</v>
+        <v>1.016949132946094</v>
       </c>
       <c r="D6">
-        <v>1.032495521049025</v>
+        <v>1.030114679948883</v>
       </c>
       <c r="E6">
-        <v>1.018224263790175</v>
+        <v>1.028763967292353</v>
       </c>
       <c r="F6">
-        <v>1.031885132939293</v>
+        <v>1.036217826860672</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052784623158993</v>
+        <v>1.047244314245706</v>
       </c>
       <c r="J6">
-        <v>1.034860285489966</v>
+        <v>1.035410773642558</v>
       </c>
       <c r="K6">
-        <v>1.041965651279098</v>
+        <v>1.039610662520025</v>
       </c>
       <c r="L6">
-        <v>1.027851585391787</v>
+        <v>1.038274681871144</v>
       </c>
       <c r="M6">
-        <v>1.041361877113425</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.045647830194822</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013800350410061</v>
+        <v>1.014923638092891</v>
       </c>
       <c r="D7">
-        <v>1.030438966892065</v>
+        <v>1.028601260670381</v>
       </c>
       <c r="E7">
-        <v>1.015981380547985</v>
+        <v>1.027027004742812</v>
       </c>
       <c r="F7">
-        <v>1.029450579232685</v>
+        <v>1.034360205143105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051760311623073</v>
+        <v>1.046701908096706</v>
       </c>
       <c r="J7">
-        <v>1.032851546406439</v>
+        <v>1.033947195123404</v>
       </c>
       <c r="K7">
-        <v>1.04018050968539</v>
+        <v>1.038363436447323</v>
       </c>
       <c r="L7">
-        <v>1.025887738077089</v>
+        <v>1.036806927948695</v>
       </c>
       <c r="M7">
-        <v>1.039203207947584</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.044058023446343</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002602189138306</v>
+        <v>1.006225950881262</v>
       </c>
       <c r="D8">
-        <v>1.021535000358021</v>
+        <v>1.022105777217132</v>
       </c>
       <c r="E8">
-        <v>1.006264707421227</v>
+        <v>1.019581001461353</v>
       </c>
       <c r="F8">
-        <v>1.018921918881478</v>
+        <v>1.026397992764265</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047291464817942</v>
+        <v>1.044347479320074</v>
       </c>
       <c r="J8">
-        <v>1.024135175766401</v>
+        <v>1.027655080226969</v>
       </c>
       <c r="K8">
-        <v>1.032430958313262</v>
+        <v>1.032994411076596</v>
       </c>
       <c r="L8">
-        <v>1.017360482720611</v>
+        <v>1.03050211040954</v>
       </c>
       <c r="M8">
-        <v>1.029851538463237</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.037231875611439</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9811495467096661</v>
+        <v>0.9899251732069974</v>
       </c>
       <c r="D9">
-        <v>1.004507895028594</v>
+        <v>1.009952591511268</v>
       </c>
       <c r="E9">
-        <v>0.9876560397151267</v>
+        <v>1.005681158533151</v>
       </c>
       <c r="F9">
-        <v>0.9988313238367825</v>
+        <v>1.011538078723535</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038612294880835</v>
+        <v>1.039841387782879</v>
       </c>
       <c r="J9">
-        <v>1.007385985832006</v>
+        <v>1.015838785482313</v>
       </c>
       <c r="K9">
-        <v>1.017528255734626</v>
+        <v>1.022886232566263</v>
       </c>
       <c r="L9">
-        <v>1.00095261509235</v>
+        <v>1.018682730491508</v>
       </c>
       <c r="M9">
-        <v>1.011943390496281</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.02444669178364</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9654198487237456</v>
+        <v>0.9782935056624256</v>
       </c>
       <c r="D10">
-        <v>0.9920556440440383</v>
+        <v>1.001302397677792</v>
       </c>
       <c r="E10">
-        <v>0.9740239189262283</v>
+        <v>0.9958066439507733</v>
       </c>
       <c r="F10">
-        <v>0.984165157194588</v>
+        <v>1.000983516358573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03217304836104</v>
+        <v>1.036566753804243</v>
       </c>
       <c r="J10">
-        <v>0.9950759586006159</v>
+        <v>1.00739561843895</v>
       </c>
       <c r="K10">
-        <v>1.006569833204217</v>
+        <v>1.015648176681372</v>
       </c>
       <c r="L10">
-        <v>0.9888785712505549</v>
+        <v>1.010252025756603</v>
       </c>
       <c r="M10">
-        <v>0.9988263239642379</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.015335035790638</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.958194524274865</v>
+        <v>0.9730473966986691</v>
       </c>
       <c r="D11">
-        <v>0.9863466763712576</v>
+        <v>0.9974082162324237</v>
       </c>
       <c r="E11">
-        <v>0.9677673240228943</v>
+        <v>0.9913651114409718</v>
       </c>
       <c r="F11">
-        <v>0.9774466180787912</v>
+        <v>0.9962364686222275</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029198766034251</v>
+        <v>1.035076847397508</v>
       </c>
       <c r="J11">
-        <v>0.9894161551295035</v>
+        <v>1.003586070065501</v>
       </c>
       <c r="K11">
-        <v>1.001530750846582</v>
+        <v>1.012379175875596</v>
       </c>
       <c r="L11">
-        <v>0.9833238234046546</v>
+        <v>1.006451727225319</v>
       </c>
       <c r="M11">
-        <v>0.9928067710116079</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.011229710359008</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9554406114114651</v>
+        <v>0.9710645484033895</v>
       </c>
       <c r="D12">
-        <v>0.9841726721633942</v>
+        <v>0.9959376265836273</v>
       </c>
       <c r="E12">
-        <v>0.9653836608713995</v>
+        <v>0.9896883335031529</v>
       </c>
       <c r="F12">
-        <v>0.9748888964497729</v>
+        <v>0.9944443976786663</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028062803352306</v>
+        <v>1.034511865213236</v>
       </c>
       <c r="J12">
-        <v>0.9872583098859782</v>
+        <v>1.002146078914303</v>
       </c>
       <c r="K12">
-        <v>0.9996095132219991</v>
+        <v>1.011143071306613</v>
       </c>
       <c r="L12">
-        <v>0.9812055261643441</v>
+        <v>1.005015791608189</v>
       </c>
       <c r="M12">
-        <v>0.9905135340689825</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.009678813911941</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9560346496745196</v>
+        <v>0.9714914715447575</v>
       </c>
       <c r="D13">
-        <v>0.9846415263891477</v>
+        <v>0.9962541954385992</v>
       </c>
       <c r="E13">
-        <v>0.965897783428646</v>
+        <v>0.9900492657352837</v>
       </c>
       <c r="F13">
-        <v>0.9754404731229238</v>
+        <v>0.9948301452188026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028307940515357</v>
+        <v>1.034633592148947</v>
       </c>
       <c r="J13">
-        <v>0.9877237974613557</v>
+        <v>1.00245612371502</v>
       </c>
       <c r="K13">
-        <v>1.00002396120245</v>
+        <v>1.011409236288917</v>
       </c>
       <c r="L13">
-        <v>0.9816625050408404</v>
+        <v>1.005324937722771</v>
       </c>
       <c r="M13">
-        <v>0.9910081473749789</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.010012696930259</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9579683657726092</v>
+        <v>0.9728842086499079</v>
       </c>
       <c r="D14">
-        <v>0.9861680999641246</v>
+        <v>0.9972871599120413</v>
       </c>
       <c r="E14">
-        <v>0.9675715492366037</v>
+        <v>0.9912270720480724</v>
       </c>
       <c r="F14">
-        <v>0.9772365081719118</v>
+        <v>0.9960889369526513</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029105523869297</v>
+        <v>1.035030386362499</v>
       </c>
       <c r="J14">
-        <v>0.9892389588707512</v>
+        <v>1.003467560659039</v>
       </c>
       <c r="K14">
-        <v>1.001372984735742</v>
+        <v>1.012277454696121</v>
       </c>
       <c r="L14">
-        <v>0.9831498848570764</v>
+        <v>1.006333540152458</v>
       </c>
       <c r="M14">
-        <v>0.9926184206213363</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.01110205527406</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9591502425842787</v>
+        <v>0.9737376996554421</v>
       </c>
       <c r="D15">
-        <v>0.9871013997024964</v>
+        <v>0.9979203505548432</v>
       </c>
       <c r="E15">
-        <v>0.9685946873266799</v>
+        <v>0.9919491138843743</v>
       </c>
       <c r="F15">
-        <v>0.9783346416399066</v>
+        <v>0.996860631790603</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029592702892124</v>
+        <v>1.035273308000564</v>
       </c>
       <c r="J15">
-        <v>0.9901649406312488</v>
+        <v>1.004087373675431</v>
       </c>
       <c r="K15">
-        <v>1.002197428031931</v>
+        <v>1.012809446493607</v>
       </c>
       <c r="L15">
-        <v>0.9840588222700942</v>
+        <v>1.006951690166203</v>
       </c>
       <c r="M15">
-        <v>0.9936027629523627</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.011769737465639</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9658900018689736</v>
+        <v>0.9786370322546505</v>
       </c>
       <c r="D16">
-        <v>0.992427376867891</v>
+        <v>1.001557562513854</v>
       </c>
       <c r="E16">
-        <v>0.9744311629056419</v>
+        <v>0.996097747899056</v>
       </c>
       <c r="F16">
-        <v>0.9846027322239438</v>
+        <v>1.001294651040051</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032366258975453</v>
+        <v>1.036664055399289</v>
       </c>
       <c r="J16">
-        <v>0.9954441477519301</v>
+        <v>1.00764505389535</v>
       </c>
       <c r="K16">
-        <v>1.006897632562399</v>
+        <v>1.015862156281079</v>
       </c>
       <c r="L16">
-        <v>0.9892398563242186</v>
+        <v>1.010500931877594</v>
       </c>
       <c r="M16">
-        <v>0.9992181537763969</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015603960301219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.970001637733531</v>
+        <v>0.9816523281106286</v>
       </c>
       <c r="D17">
-        <v>0.9956795472429075</v>
+        <v>1.003798103217395</v>
       </c>
       <c r="E17">
-        <v>0.9779932468705244</v>
+        <v>0.9986542864481465</v>
       </c>
       <c r="F17">
-        <v>0.988431535264134</v>
+        <v>1.004027144508147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034054119413043</v>
+        <v>1.037516661433054</v>
       </c>
       <c r="J17">
-        <v>0.9986635027145364</v>
+        <v>1.009834308574971</v>
       </c>
       <c r="K17">
-        <v>1.009763756103451</v>
+        <v>1.017739864048766</v>
       </c>
       <c r="L17">
-        <v>0.9923984596073243</v>
+        <v>1.012685952111103</v>
       </c>
       <c r="M17">
-        <v>1.002645488245861</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.017964929826693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9723605146198601</v>
+        <v>0.9833910839994301</v>
       </c>
       <c r="D18">
-        <v>0.9975463329393718</v>
+        <v>1.005090767148986</v>
       </c>
       <c r="E18">
-        <v>0.9800373108523365</v>
+        <v>1.000129627291539</v>
       </c>
       <c r="F18">
-        <v>0.9906298281345219</v>
+        <v>1.005604061765641</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035020914833845</v>
+        <v>1.038007083289102</v>
       </c>
       <c r="J18">
-        <v>1.00050996772979</v>
+        <v>1.011096581136834</v>
       </c>
       <c r="K18">
-        <v>1.011407554710729</v>
+        <v>1.018822202117921</v>
       </c>
       <c r="L18">
-        <v>0.9942097591399998</v>
+        <v>1.013946123574674</v>
       </c>
       <c r="M18">
-        <v>1.004612287192676</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.019326757896661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9731583693133558</v>
+        <v>0.9839806377910463</v>
       </c>
       <c r="D19">
-        <v>0.9981779046852299</v>
+        <v>1.005529173872473</v>
       </c>
       <c r="E19">
-        <v>0.9807287580988997</v>
+        <v>1.000630052383945</v>
       </c>
       <c r="F19">
-        <v>0.9913736448474907</v>
+        <v>1.006138947133149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035347653092375</v>
+        <v>1.038173157492708</v>
       </c>
       <c r="J19">
-        <v>1.001134416932953</v>
+        <v>1.011524546651212</v>
       </c>
       <c r="K19">
-        <v>1.011963451412897</v>
+        <v>1.019189109228164</v>
       </c>
       <c r="L19">
-        <v>0.9948222610648545</v>
+        <v>1.014373434070873</v>
       </c>
       <c r="M19">
-        <v>1.005277607496409</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.019788569644676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9695646228053948</v>
+        <v>0.9813309043995034</v>
       </c>
       <c r="D20">
-        <v>0.995333777428316</v>
+        <v>1.003559196071772</v>
       </c>
       <c r="E20">
-        <v>0.9776145919874539</v>
+        <v>0.9983816472831721</v>
       </c>
       <c r="F20">
-        <v>0.9880244052062642</v>
+        <v>1.003735737216984</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033874880815076</v>
+        <v>1.037425902584734</v>
       </c>
       <c r="J20">
-        <v>0.9983213772962547</v>
+        <v>1.009600953858677</v>
       </c>
       <c r="K20">
-        <v>1.009459175996352</v>
+        <v>1.017539748694641</v>
       </c>
       <c r="L20">
-        <v>0.9920628237305882</v>
+        <v>1.012453013288813</v>
       </c>
       <c r="M20">
-        <v>1.00228115111234</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.017713214721162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9574009402745923</v>
+        <v>0.9724750501959195</v>
       </c>
       <c r="D21">
-        <v>0.9857200891612306</v>
+        <v>0.9969836587991827</v>
       </c>
       <c r="E21">
-        <v>0.9670803729143324</v>
+        <v>0.9908810005808348</v>
       </c>
       <c r="F21">
-        <v>0.9767093978752868</v>
+        <v>0.9957190685902015</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028871545093097</v>
+        <v>1.03491386606697</v>
       </c>
       <c r="J21">
-        <v>0.988794368864519</v>
+        <v>1.003170422747399</v>
       </c>
       <c r="K21">
-        <v>1.000977144931378</v>
+        <v>1.012022402911775</v>
       </c>
       <c r="L21">
-        <v>0.9827134604705808</v>
+        <v>1.006037219471403</v>
       </c>
       <c r="M21">
-        <v>0.992145873195582</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010782000956529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9493425100260253</v>
+        <v>0.9667074977897234</v>
       </c>
       <c r="D22">
-        <v>0.9793627012725927</v>
+        <v>0.9927087792920188</v>
       </c>
       <c r="E22">
-        <v>0.9601076091909467</v>
+        <v>0.9860076473898267</v>
       </c>
       <c r="F22">
-        <v>0.9692312036545521</v>
+        <v>0.9905107058202571</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025543283736308</v>
+        <v>1.033267102048855</v>
       </c>
       <c r="J22">
-        <v>0.982479157521732</v>
+        <v>0.9989818140717585</v>
       </c>
       <c r="K22">
-        <v>0.9953543806494962</v>
+        <v>1.008426073797677</v>
       </c>
       <c r="L22">
-        <v>0.9765130455393272</v>
+        <v>1.001861486783811</v>
       </c>
       <c r="M22">
-        <v>0.9854378724413758</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006272520826294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9536563864672954</v>
+        <v>0.9697848982303957</v>
       </c>
       <c r="D23">
-        <v>0.9827647577887768</v>
+        <v>0.9949889528285339</v>
       </c>
       <c r="E23">
-        <v>0.963839637211115</v>
+        <v>0.9886067843875326</v>
       </c>
       <c r="F23">
-        <v>0.9732326764605558</v>
+        <v>0.9932884943602568</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027326193389541</v>
+        <v>1.034146740837335</v>
       </c>
       <c r="J23">
-        <v>0.9858601162825589</v>
+        <v>1.001216750189413</v>
       </c>
       <c r="K23">
-        <v>0.998364626297421</v>
+        <v>1.010345207303177</v>
       </c>
       <c r="L23">
-        <v>0.9798328173582473</v>
+        <v>1.004089239764498</v>
       </c>
       <c r="M23">
-        <v>0.9890281196871807</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008678165574558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,78 +1257,72 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9697622121308649</v>
+        <v>0.9814762035894913</v>
       </c>
       <c r="D24">
-        <v>0.9954901086714805</v>
+        <v>1.003667191694009</v>
       </c>
       <c r="E24">
-        <v>0.9777857933063886</v>
+        <v>0.9985048899972461</v>
       </c>
       <c r="F24">
-        <v>0.9882084773591856</v>
+        <v>1.003867463688861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033955925498853</v>
+        <v>1.037466933834348</v>
       </c>
       <c r="J24">
-        <v>0.9984760654227635</v>
+        <v>1.009706442045015</v>
       </c>
       <c r="K24">
-        <v>1.009596888658715</v>
+        <v>1.017630211947562</v>
       </c>
       <c r="L24">
-        <v>0.992214578685126</v>
+        <v>1.01255831241397</v>
       </c>
       <c r="M24">
-        <v>1.002445878760137</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.017827001033384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869248826221397</v>
+        <v>0.9942653593423407</v>
       </c>
       <c r="D25">
-        <v>1.009087243990154</v>
+        <v>1.013185329496061</v>
       </c>
       <c r="E25">
-        <v>0.9926643180397657</v>
+        <v>1.009375075987728</v>
       </c>
       <c r="F25">
-        <v>1.00422987426767</v>
+        <v>1.015486764851155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040961954010306</v>
+        <v>1.04105160109108</v>
       </c>
       <c r="J25">
-        <v>1.011900433532054</v>
+        <v>1.018987270360556</v>
       </c>
       <c r="K25">
-        <v>1.021546111238458</v>
+        <v>1.025582351166768</v>
       </c>
       <c r="L25">
-        <v>1.005377588516055</v>
+        <v>1.021829578574074</v>
       </c>
       <c r="M25">
-        <v>1.016762879851455</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.027849333212666</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00392433626681</v>
+        <v>1.017474373512258</v>
       </c>
       <c r="D2">
-        <v>1.020387998753988</v>
+        <v>1.03279824828548</v>
       </c>
       <c r="E2">
-        <v>1.017614042281583</v>
+        <v>1.02989429205702</v>
       </c>
       <c r="F2">
-        <v>1.02429492032231</v>
+        <v>1.038131836122031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043718119926018</v>
+        <v>1.047780356847926</v>
       </c>
       <c r="J2">
-        <v>1.025988301331111</v>
+        <v>1.039144701628715</v>
       </c>
       <c r="K2">
-        <v>1.031570419634337</v>
+        <v>1.043818806624527</v>
       </c>
       <c r="L2">
-        <v>1.028833320629893</v>
+        <v>1.040952288182503</v>
       </c>
       <c r="M2">
-        <v>1.035425854453054</v>
+        <v>1.049084315177444</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010659799298945</v>
+        <v>1.024898110916464</v>
       </c>
       <c r="D3">
-        <v>1.025416264035243</v>
+        <v>1.038362346425987</v>
       </c>
       <c r="E3">
-        <v>1.023374208065132</v>
+        <v>1.036176659315871</v>
       </c>
       <c r="F3">
-        <v>1.030453972833083</v>
+        <v>1.044566163883326</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045552626985228</v>
+        <v>1.049694456541108</v>
       </c>
       <c r="J3">
-        <v>1.030864026242049</v>
+        <v>1.044732297199304</v>
       </c>
       <c r="K3">
-        <v>1.035733947964507</v>
+        <v>1.04852682068052</v>
       </c>
       <c r="L3">
-        <v>1.033716497951662</v>
+        <v>1.046366667561922</v>
       </c>
       <c r="M3">
-        <v>1.040711471296798</v>
+        <v>1.054658881641575</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014900073583725</v>
+        <v>1.029565409508404</v>
       </c>
       <c r="D4">
-        <v>1.028583655085399</v>
+        <v>1.041862769296056</v>
       </c>
       <c r="E4">
-        <v>1.027006803602899</v>
+        <v>1.040132349128719</v>
       </c>
       <c r="F4">
-        <v>1.034338601293915</v>
+        <v>1.048617614065343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046695583957022</v>
+        <v>1.050885350840473</v>
       </c>
       <c r="J4">
-        <v>1.033930163765717</v>
+        <v>1.048241916720626</v>
       </c>
       <c r="K4">
-        <v>1.038348918866646</v>
+        <v>1.051480895999988</v>
       </c>
       <c r="L4">
-        <v>1.03678985081294</v>
+        <v>1.049769388006309</v>
       </c>
       <c r="M4">
-        <v>1.044039527831084</v>
+        <v>1.058162647601922</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016655861683157</v>
+        <v>1.031496669873592</v>
       </c>
       <c r="D5">
-        <v>1.02989553723899</v>
+        <v>1.043311625664744</v>
       </c>
       <c r="E5">
-        <v>1.028512403114292</v>
+        <v>1.041770496077453</v>
       </c>
       <c r="F5">
-        <v>1.035948781478035</v>
+        <v>1.050295430659589</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047165926250647</v>
+        <v>1.051375061687511</v>
       </c>
       <c r="J5">
-        <v>1.035198906711467</v>
+        <v>1.049693285428224</v>
       </c>
       <c r="K5">
-        <v>1.039430155907153</v>
+        <v>1.052701759049812</v>
       </c>
       <c r="L5">
-        <v>1.03806218073292</v>
+        <v>1.051176995124431</v>
       </c>
       <c r="M5">
-        <v>1.045417641405194</v>
+        <v>1.059612136557171</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016949132946094</v>
+        <v>1.03181917553332</v>
       </c>
       <c r="D6">
-        <v>1.030114679948883</v>
+        <v>1.043553595787466</v>
       </c>
       <c r="E6">
-        <v>1.028763967292353</v>
+        <v>1.042044130278808</v>
       </c>
       <c r="F6">
-        <v>1.036217826860672</v>
+        <v>1.050575691831995</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047244314245706</v>
+        <v>1.051456657623032</v>
       </c>
       <c r="J6">
-        <v>1.035410773642558</v>
+        <v>1.049935600294032</v>
       </c>
       <c r="K6">
-        <v>1.039610662520025</v>
+        <v>1.052905543731206</v>
       </c>
       <c r="L6">
-        <v>1.038274681871144</v>
+        <v>1.051412029642949</v>
       </c>
       <c r="M6">
-        <v>1.045647830194822</v>
+        <v>1.059854168899721</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014923638092891</v>
+        <v>1.029591334171501</v>
       </c>
       <c r="D7">
-        <v>1.028601260670381</v>
+        <v>1.041882216747326</v>
       </c>
       <c r="E7">
-        <v>1.027027004742812</v>
+        <v>1.040154333940149</v>
       </c>
       <c r="F7">
-        <v>1.034360205143105</v>
+        <v>1.048640131220922</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046701908096706</v>
+        <v>1.05089193677992</v>
       </c>
       <c r="J7">
-        <v>1.033947195123404</v>
+        <v>1.048261402956385</v>
       </c>
       <c r="K7">
-        <v>1.038363436447323</v>
+        <v>1.051497290509726</v>
       </c>
       <c r="L7">
-        <v>1.036806927948695</v>
+        <v>1.049788284943983</v>
       </c>
       <c r="M7">
-        <v>1.044058023446343</v>
+        <v>1.058182106481929</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006225950881262</v>
+        <v>1.020012606918541</v>
       </c>
       <c r="D8">
-        <v>1.022105777217132</v>
+        <v>1.034700103396727</v>
       </c>
       <c r="E8">
-        <v>1.019581001461353</v>
+        <v>1.032040964307436</v>
       </c>
       <c r="F8">
-        <v>1.026397992764265</v>
+        <v>1.040330412685053</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044347479320074</v>
+        <v>1.048437397046914</v>
       </c>
       <c r="J8">
-        <v>1.027655080226969</v>
+        <v>1.04105579512019</v>
       </c>
       <c r="K8">
-        <v>1.032994411076596</v>
+        <v>1.045429691626433</v>
       </c>
       <c r="L8">
-        <v>1.03050211040954</v>
+        <v>1.042803730055741</v>
       </c>
       <c r="M8">
-        <v>1.037231875611439</v>
+        <v>1.05099044906962</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9899251732069974</v>
+        <v>1.002001420622032</v>
       </c>
       <c r="D9">
-        <v>1.009952591511268</v>
+        <v>1.021219683790626</v>
       </c>
       <c r="E9">
-        <v>1.005681158533151</v>
+        <v>1.016838293061679</v>
       </c>
       <c r="F9">
-        <v>1.011538078723535</v>
+        <v>1.024760764128318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039841387782879</v>
+        <v>1.043724029040183</v>
       </c>
       <c r="J9">
-        <v>1.015838785482313</v>
+        <v>1.027483700987721</v>
       </c>
       <c r="K9">
-        <v>1.022886232566263</v>
+        <v>1.033977618423227</v>
       </c>
       <c r="L9">
-        <v>1.018682730491508</v>
+        <v>1.029663962698464</v>
       </c>
       <c r="M9">
-        <v>1.02444669178364</v>
+        <v>1.037464494359378</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9782935056624256</v>
+        <v>0.9890947691036395</v>
       </c>
       <c r="D10">
-        <v>1.001302397677792</v>
+        <v>1.011585568870599</v>
       </c>
       <c r="E10">
-        <v>0.9958066439507733</v>
+        <v>1.0059880346219</v>
       </c>
       <c r="F10">
-        <v>1.000983516358573</v>
+        <v>1.01364970952434</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036566753804243</v>
+        <v>1.040284576390583</v>
       </c>
       <c r="J10">
-        <v>1.00739561843895</v>
+        <v>1.017747839666963</v>
       </c>
       <c r="K10">
-        <v>1.015648176681372</v>
+        <v>1.025748746260957</v>
       </c>
       <c r="L10">
-        <v>1.010252025756603</v>
+        <v>1.020250008425501</v>
       </c>
       <c r="M10">
-        <v>1.015335035790638</v>
+        <v>1.027776811420509</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9730473966986691</v>
+        <v>0.9832567564037242</v>
       </c>
       <c r="D11">
-        <v>0.9974082162324237</v>
+        <v>1.007236307630656</v>
       </c>
       <c r="E11">
-        <v>0.9913651114409718</v>
+        <v>1.001092554921369</v>
       </c>
       <c r="F11">
-        <v>0.9962364686222275</v>
+        <v>1.00863695196698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035076847397508</v>
+        <v>1.038715345709818</v>
       </c>
       <c r="J11">
-        <v>1.003586070065501</v>
+        <v>1.013343052107375</v>
       </c>
       <c r="K11">
-        <v>1.012379175875596</v>
+        <v>1.022023035983036</v>
       </c>
       <c r="L11">
-        <v>1.006451727225319</v>
+        <v>1.015993896627468</v>
       </c>
       <c r="M11">
-        <v>1.011229710359008</v>
+        <v>1.023397805624551</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9710645484033895</v>
+        <v>0.98104725477156</v>
       </c>
       <c r="D12">
-        <v>0.9959376265836273</v>
+        <v>1.005591754101746</v>
       </c>
       <c r="E12">
-        <v>0.9896883335031529</v>
+        <v>0.9992418195999815</v>
       </c>
       <c r="F12">
-        <v>0.9944443976786663</v>
+        <v>1.006741950301923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034511865213236</v>
+        <v>1.038119533437684</v>
       </c>
       <c r="J12">
-        <v>1.002146078914303</v>
+        <v>1.011675966299598</v>
       </c>
       <c r="K12">
-        <v>1.011143071306613</v>
+        <v>1.020612603349238</v>
       </c>
       <c r="L12">
-        <v>1.005015791608189</v>
+        <v>1.014383559579015</v>
       </c>
       <c r="M12">
-        <v>1.009678813911941</v>
+        <v>1.021741115090134</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9714914715447575</v>
+        <v>0.9815231177834743</v>
       </c>
       <c r="D13">
-        <v>0.9962541954385992</v>
+        <v>1.005945871834224</v>
       </c>
       <c r="E13">
-        <v>0.9900492657352837</v>
+        <v>0.9996403190178899</v>
       </c>
       <c r="F13">
-        <v>0.9948301452188026</v>
+        <v>1.007149977736097</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034633592148947</v>
+        <v>1.03824793838559</v>
       </c>
       <c r="J13">
-        <v>1.00245612371502</v>
+        <v>1.012035006849159</v>
       </c>
       <c r="K13">
-        <v>1.011409236288917</v>
+        <v>1.020916383738586</v>
       </c>
       <c r="L13">
-        <v>1.005324937722771</v>
+        <v>1.01473035610754</v>
       </c>
       <c r="M13">
-        <v>1.010012696930259</v>
+        <v>1.022097887357153</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9728842086499079</v>
+        <v>0.9830749768915383</v>
       </c>
       <c r="D14">
-        <v>0.9972871599120413</v>
+        <v>1.007100975505618</v>
       </c>
       <c r="E14">
-        <v>0.9912270720480724</v>
+        <v>1.000940249051609</v>
       </c>
       <c r="F14">
-        <v>0.9960889369526513</v>
+        <v>1.008481001703211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035030386362499</v>
+        <v>1.038666365197524</v>
       </c>
       <c r="J14">
-        <v>1.003467560659039</v>
+        <v>1.013205897528437</v>
       </c>
       <c r="K14">
-        <v>1.012277454696121</v>
+        <v>1.021907003734724</v>
       </c>
       <c r="L14">
-        <v>1.006333540152458</v>
+        <v>1.015861401024197</v>
       </c>
       <c r="M14">
-        <v>1.01110205527406</v>
+        <v>1.023261493116184</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9737376996554421</v>
+        <v>0.9840255813776276</v>
       </c>
       <c r="D15">
-        <v>0.9979203505548432</v>
+        <v>1.00780874880991</v>
       </c>
       <c r="E15">
-        <v>0.9919491138843743</v>
+        <v>1.001736807379196</v>
       </c>
       <c r="F15">
-        <v>0.996860631790603</v>
+        <v>1.00929662312135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035273308000564</v>
+        <v>1.038922428850035</v>
       </c>
       <c r="J15">
-        <v>1.004087373675431</v>
+        <v>1.01392313901777</v>
       </c>
       <c r="K15">
-        <v>1.012809446493607</v>
+        <v>1.022513773053133</v>
       </c>
       <c r="L15">
-        <v>1.006951690166203</v>
+        <v>1.016554298307593</v>
       </c>
       <c r="M15">
-        <v>1.011769737465639</v>
+        <v>1.023974357206366</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9786370322546505</v>
+        <v>0.9894766731550074</v>
       </c>
       <c r="D16">
-        <v>1.001557562513854</v>
+        <v>1.011870277943967</v>
       </c>
       <c r="E16">
-        <v>0.996097747899056</v>
+        <v>1.006308552664681</v>
       </c>
       <c r="F16">
-        <v>1.001294651040051</v>
+        <v>1.013977915061474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036664055399289</v>
+        <v>1.040386960980815</v>
       </c>
       <c r="J16">
-        <v>1.00764505389535</v>
+        <v>1.018035977074763</v>
       </c>
       <c r="K16">
-        <v>1.015862156281079</v>
+        <v>1.025992409865534</v>
       </c>
       <c r="L16">
-        <v>1.010500931877594</v>
+        <v>1.020528484981179</v>
       </c>
       <c r="M16">
-        <v>1.015603960301219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.028063347965885</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9816523281106286</v>
+        <v>0.9928268790422738</v>
       </c>
       <c r="D17">
-        <v>1.003798103217395</v>
+        <v>1.014368836823019</v>
       </c>
       <c r="E17">
-        <v>0.9986542864481465</v>
+        <v>1.0091216743877</v>
       </c>
       <c r="F17">
-        <v>1.004027144508147</v>
+        <v>1.016858553690564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037516661433054</v>
+        <v>1.041283608848919</v>
       </c>
       <c r="J17">
-        <v>1.009834308574971</v>
+        <v>1.020563528144949</v>
       </c>
       <c r="K17">
-        <v>1.017739864048766</v>
+        <v>1.028129533025479</v>
       </c>
       <c r="L17">
-        <v>1.012685952111103</v>
+        <v>1.022971635807334</v>
       </c>
       <c r="M17">
-        <v>1.017964929826693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.030577310100169</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9833910839994301</v>
+        <v>0.9947572009115097</v>
       </c>
       <c r="D18">
-        <v>1.005090767148986</v>
+        <v>1.015809239498524</v>
       </c>
       <c r="E18">
-        <v>1.000129627291539</v>
+        <v>1.010743688656311</v>
       </c>
       <c r="F18">
-        <v>1.005604061765641</v>
+        <v>1.018519533270577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038007083289102</v>
+        <v>1.041798964794225</v>
       </c>
       <c r="J18">
-        <v>1.011096581136834</v>
+        <v>1.022019748615623</v>
       </c>
       <c r="K18">
-        <v>1.018822202117921</v>
+        <v>1.029360552783222</v>
       </c>
       <c r="L18">
-        <v>1.013946123574674</v>
+        <v>1.02437951364125</v>
       </c>
       <c r="M18">
-        <v>1.019326757896661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.032026073138647</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9839806377910463</v>
+        <v>0.9954114548283886</v>
       </c>
       <c r="D19">
-        <v>1.005529173872473</v>
+        <v>1.016297569070764</v>
       </c>
       <c r="E19">
-        <v>1.000630052383945</v>
+        <v>1.011293636052465</v>
       </c>
       <c r="F19">
-        <v>1.006138947133149</v>
+        <v>1.019082697682205</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038173157492708</v>
+        <v>1.041973417554356</v>
       </c>
       <c r="J19">
-        <v>1.011524546651212</v>
+        <v>1.022513291444914</v>
       </c>
       <c r="K19">
-        <v>1.019189109228164</v>
+        <v>1.029777724939181</v>
       </c>
       <c r="L19">
-        <v>1.014373434070873</v>
+        <v>1.024856719635163</v>
       </c>
       <c r="M19">
-        <v>1.019788569644676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.032517150459049</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9813309043995034</v>
+        <v>0.9924699192070225</v>
       </c>
       <c r="D20">
-        <v>1.003559196071772</v>
+        <v>1.014102535927991</v>
       </c>
       <c r="E20">
-        <v>0.9983816472831721</v>
+        <v>1.008821819395795</v>
       </c>
       <c r="F20">
-        <v>1.003735737216984</v>
+        <v>1.016551498164748</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037425902584734</v>
+        <v>1.041188203933541</v>
       </c>
       <c r="J20">
-        <v>1.009600953858677</v>
+        <v>1.020294230947482</v>
       </c>
       <c r="K20">
-        <v>1.017539748694641</v>
+        <v>1.02790186052814</v>
       </c>
       <c r="L20">
-        <v>1.012453013288813</v>
+        <v>1.022711301378272</v>
       </c>
       <c r="M20">
-        <v>1.017713214721162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.030309421843036</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9724750501959195</v>
+        <v>0.9826191557187055</v>
       </c>
       <c r="D21">
-        <v>0.9969836587991827</v>
+        <v>1.006761648450351</v>
       </c>
       <c r="E21">
-        <v>0.9908810005808348</v>
+        <v>1.000558368107954</v>
       </c>
       <c r="F21">
-        <v>0.9957190685902015</v>
+        <v>1.008089984242013</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03491386606697</v>
+        <v>1.038543513853153</v>
       </c>
       <c r="J21">
-        <v>1.003170422747399</v>
+        <v>1.012861975860521</v>
       </c>
       <c r="K21">
-        <v>1.012022402911775</v>
+        <v>1.021616041748126</v>
       </c>
       <c r="L21">
-        <v>1.006037219471403</v>
+        <v>1.015529169750655</v>
       </c>
       <c r="M21">
-        <v>1.010782000956529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.022919693373886</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9667074977897234</v>
+        <v>0.9761862484521991</v>
       </c>
       <c r="D22">
-        <v>0.9927087792920188</v>
+        <v>1.001976705706713</v>
       </c>
       <c r="E22">
-        <v>0.9860076473898267</v>
+        <v>0.9951741214728433</v>
       </c>
       <c r="F22">
-        <v>0.9905107058202571</v>
+        <v>1.002577104567725</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033267102048855</v>
+        <v>1.036805337156576</v>
       </c>
       <c r="J22">
-        <v>0.9989818140717585</v>
+        <v>1.008008439221464</v>
       </c>
       <c r="K22">
-        <v>1.008426073797677</v>
+        <v>1.01750910511541</v>
       </c>
       <c r="L22">
-        <v>1.001861486783811</v>
+        <v>1.010841790015676</v>
       </c>
       <c r="M22">
-        <v>1.006272520826294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.018097680806261</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9697848982303957</v>
+        <v>0.9796204485223817</v>
       </c>
       <c r="D23">
-        <v>0.9949889528285339</v>
+        <v>1.004530222567676</v>
       </c>
       <c r="E23">
-        <v>0.9886067843875326</v>
+        <v>0.9980472927444669</v>
       </c>
       <c r="F23">
-        <v>0.9932884943602568</v>
+        <v>1.005518873964636</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034146740837335</v>
+        <v>1.037734259668834</v>
       </c>
       <c r="J23">
-        <v>1.001216750189413</v>
+        <v>1.010599444586566</v>
       </c>
       <c r="K23">
-        <v>1.010345207303177</v>
+        <v>1.019701721563993</v>
       </c>
       <c r="L23">
-        <v>1.004089239764498</v>
+        <v>1.013343821665405</v>
       </c>
       <c r="M23">
-        <v>1.008678165574558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.020671491159587</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9814762035894913</v>
+        <v>0.9926312872674918</v>
       </c>
       <c r="D24">
-        <v>1.003667191694009</v>
+        <v>1.0142229180904</v>
       </c>
       <c r="E24">
-        <v>0.9985048899972461</v>
+        <v>1.008957368956194</v>
       </c>
       <c r="F24">
-        <v>1.003867463688861</v>
+        <v>1.016690302618811</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037466933834348</v>
+        <v>1.041231336860723</v>
       </c>
       <c r="J24">
-        <v>1.009706442045015</v>
+        <v>1.020415970373473</v>
       </c>
       <c r="K24">
-        <v>1.017630211947562</v>
+        <v>1.028004783759177</v>
       </c>
       <c r="L24">
-        <v>1.01255831241397</v>
+        <v>1.022828988184723</v>
       </c>
       <c r="M24">
-        <v>1.017827001033384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.030430523186861</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9942653593423407</v>
+        <v>1.00680518669784</v>
       </c>
       <c r="D25">
-        <v>1.013185329496061</v>
+        <v>1.024811355289604</v>
       </c>
       <c r="E25">
-        <v>1.009375075987728</v>
+        <v>1.020886119404077</v>
       </c>
       <c r="F25">
-        <v>1.015486764851155</v>
+        <v>1.028906147046139</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04105160109108</v>
+        <v>1.044992037054785</v>
       </c>
       <c r="J25">
-        <v>1.018987270360556</v>
+        <v>1.031105679693068</v>
       </c>
       <c r="K25">
-        <v>1.025582351166768</v>
+        <v>1.037036340448409</v>
       </c>
       <c r="L25">
-        <v>1.021829578574074</v>
+        <v>1.033168631919318</v>
       </c>
       <c r="M25">
-        <v>1.027849333212666</v>
+        <v>1.041071712660397</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017474373512258</v>
+        <v>1.065372528896858</v>
       </c>
       <c r="D2">
-        <v>1.03279824828548</v>
+        <v>1.063869726135687</v>
       </c>
       <c r="E2">
-        <v>1.02989429205702</v>
+        <v>1.06945816529658</v>
       </c>
       <c r="F2">
-        <v>1.038131836122031</v>
+        <v>1.077626730693453</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047780356847926</v>
+        <v>1.042356725517955</v>
       </c>
       <c r="J2">
-        <v>1.039144701628715</v>
+        <v>1.070327980816843</v>
       </c>
       <c r="K2">
-        <v>1.043818806624527</v>
+        <v>1.066587198548006</v>
       </c>
       <c r="L2">
-        <v>1.040952288182503</v>
+        <v>1.072160619036924</v>
       </c>
       <c r="M2">
-        <v>1.049084315177444</v>
+        <v>1.08030753462386</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024898110916464</v>
+        <v>1.066880291374384</v>
       </c>
       <c r="D3">
-        <v>1.038362346425987</v>
+        <v>1.065008334230027</v>
       </c>
       <c r="E3">
-        <v>1.036176659315871</v>
+        <v>1.070778536756293</v>
       </c>
       <c r="F3">
-        <v>1.044566163883326</v>
+        <v>1.078978983542374</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049694456541108</v>
+        <v>1.042658868434196</v>
       </c>
       <c r="J3">
-        <v>1.044732297199304</v>
+        <v>1.071488678508449</v>
       </c>
       <c r="K3">
-        <v>1.04852682068052</v>
+        <v>1.067540090210302</v>
       </c>
       <c r="L3">
-        <v>1.046366667561922</v>
+        <v>1.073295914759028</v>
       </c>
       <c r="M3">
-        <v>1.054658881641575</v>
+        <v>1.081476212547096</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029565409508404</v>
+        <v>1.067854960537445</v>
       </c>
       <c r="D4">
-        <v>1.041862769296056</v>
+        <v>1.065744020889579</v>
       </c>
       <c r="E4">
-        <v>1.040132349128719</v>
+        <v>1.071632255198699</v>
       </c>
       <c r="F4">
-        <v>1.048617614065343</v>
+        <v>1.079853312558215</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050885350840473</v>
+        <v>1.042852545510387</v>
       </c>
       <c r="J4">
-        <v>1.048241916720626</v>
+        <v>1.072238341950822</v>
       </c>
       <c r="K4">
-        <v>1.051480895999988</v>
+        <v>1.068155022228101</v>
       </c>
       <c r="L4">
-        <v>1.049769388006309</v>
+        <v>1.074029328100156</v>
       </c>
       <c r="M4">
-        <v>1.058162647601922</v>
+        <v>1.082231211260302</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031496669873592</v>
+        <v>1.068264489347675</v>
       </c>
       <c r="D5">
-        <v>1.043311625664744</v>
+        <v>1.066053051444677</v>
       </c>
       <c r="E5">
-        <v>1.041770496077453</v>
+        <v>1.071991007378773</v>
       </c>
       <c r="F5">
-        <v>1.050295430659589</v>
+        <v>1.080220724962723</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051375061687511</v>
+        <v>1.042933530659425</v>
       </c>
       <c r="J5">
-        <v>1.049693285428224</v>
+        <v>1.072553173250725</v>
       </c>
       <c r="K5">
-        <v>1.052701759049812</v>
+        <v>1.068413147586797</v>
       </c>
       <c r="L5">
-        <v>1.051176995124431</v>
+        <v>1.074337372281106</v>
       </c>
       <c r="M5">
-        <v>1.059612136557171</v>
+        <v>1.082548326332788</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03181917553332</v>
+        <v>1.068333238194525</v>
       </c>
       <c r="D6">
-        <v>1.043553595787466</v>
+        <v>1.066104924360007</v>
       </c>
       <c r="E6">
-        <v>1.042044130278808</v>
+        <v>1.072051234723898</v>
       </c>
       <c r="F6">
-        <v>1.050575691831995</v>
+        <v>1.080282406137341</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051456657623032</v>
+        <v>1.042947102852417</v>
       </c>
       <c r="J6">
-        <v>1.049935600294032</v>
+        <v>1.072606015753812</v>
       </c>
       <c r="K6">
-        <v>1.052905543731206</v>
+        <v>1.068456465083194</v>
       </c>
       <c r="L6">
-        <v>1.051412029642949</v>
+        <v>1.074389077794368</v>
       </c>
       <c r="M6">
-        <v>1.059854168899721</v>
+        <v>1.082601554678379</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029591334171501</v>
+        <v>1.067860433546391</v>
       </c>
       <c r="D7">
-        <v>1.041882216747326</v>
+        <v>1.065748151156951</v>
       </c>
       <c r="E7">
-        <v>1.040154333940149</v>
+        <v>1.071637049450723</v>
       </c>
       <c r="F7">
-        <v>1.048640131220922</v>
+        <v>1.079858222546054</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05089193677992</v>
+        <v>1.042853629352201</v>
       </c>
       <c r="J7">
-        <v>1.048261402956385</v>
+        <v>1.072242550022213</v>
       </c>
       <c r="K7">
-        <v>1.051497290509726</v>
+        <v>1.068158472847897</v>
       </c>
       <c r="L7">
-        <v>1.049788284943983</v>
+        <v>1.074033445307505</v>
       </c>
       <c r="M7">
-        <v>1.058182106481929</v>
+        <v>1.082235449687457</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020012606918541</v>
+        <v>1.065882285600336</v>
       </c>
       <c r="D8">
-        <v>1.034700103396727</v>
+        <v>1.064254747681384</v>
       </c>
       <c r="E8">
-        <v>1.032040964307436</v>
+        <v>1.069904528414337</v>
       </c>
       <c r="F8">
-        <v>1.040330412685053</v>
+        <v>1.078083872198963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048437397046914</v>
+        <v>1.042459215754636</v>
       </c>
       <c r="J8">
-        <v>1.04105579512019</v>
+        <v>1.070720533643294</v>
       </c>
       <c r="K8">
-        <v>1.045429691626433</v>
+        <v>1.06690957708747</v>
       </c>
       <c r="L8">
-        <v>1.042803730055741</v>
+        <v>1.072544548336917</v>
       </c>
       <c r="M8">
-        <v>1.05099044906962</v>
+        <v>1.080702748746967</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002001420622032</v>
+        <v>1.062388947969976</v>
       </c>
       <c r="D9">
-        <v>1.021219683790626</v>
+        <v>1.061614823044059</v>
       </c>
       <c r="E9">
-        <v>1.016838293061679</v>
+        <v>1.066846418508551</v>
       </c>
       <c r="F9">
-        <v>1.024760764128318</v>
+        <v>1.074951907571959</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043724029040183</v>
+        <v>1.041750136788557</v>
       </c>
       <c r="J9">
-        <v>1.027483700987721</v>
+        <v>1.068027732235105</v>
       </c>
       <c r="K9">
-        <v>1.033977618423227</v>
+        <v>1.064696045314727</v>
       </c>
       <c r="L9">
-        <v>1.029663962698464</v>
+        <v>1.069911549159657</v>
       </c>
       <c r="M9">
-        <v>1.037464494359378</v>
+        <v>1.077992444153965</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9890947691036395</v>
+        <v>1.060054558507437</v>
       </c>
       <c r="D10">
-        <v>1.011585568870599</v>
+        <v>1.059849014048127</v>
       </c>
       <c r="E10">
-        <v>1.0059880346219</v>
+        <v>1.064803900057788</v>
       </c>
       <c r="F10">
-        <v>1.01364970952434</v>
+        <v>1.072860051467305</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040284576390583</v>
+        <v>1.041267872235626</v>
       </c>
       <c r="J10">
-        <v>1.017747839666963</v>
+        <v>1.066224975744576</v>
       </c>
       <c r="K10">
-        <v>1.025748746260957</v>
+        <v>1.063211512394594</v>
       </c>
       <c r="L10">
-        <v>1.020250008425501</v>
+        <v>1.068149646741638</v>
       </c>
       <c r="M10">
-        <v>1.027776811420509</v>
+        <v>1.076178924115094</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9832567564037242</v>
+        <v>1.059042349516443</v>
       </c>
       <c r="D11">
-        <v>1.007236307630656</v>
+        <v>1.059082955269733</v>
       </c>
       <c r="E11">
-        <v>1.001092554921369</v>
+        <v>1.063918505300229</v>
       </c>
       <c r="F11">
-        <v>1.00863695196698</v>
+        <v>1.071953268280647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038715345709818</v>
+        <v>1.041056763240856</v>
       </c>
       <c r="J11">
-        <v>1.013343052107375</v>
+        <v>1.065442506219419</v>
       </c>
       <c r="K11">
-        <v>1.022023035983036</v>
+        <v>1.062566544148675</v>
       </c>
       <c r="L11">
-        <v>1.015993896627468</v>
+        <v>1.067385105036827</v>
       </c>
       <c r="M11">
-        <v>1.023397805624551</v>
+        <v>1.075392011819893</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.98104725477156</v>
+        <v>1.058666151541673</v>
       </c>
       <c r="D12">
-        <v>1.005591754101746</v>
+        <v>1.058798184041611</v>
       </c>
       <c r="E12">
-        <v>0.9992418195999815</v>
+        <v>1.063589478687138</v>
       </c>
       <c r="F12">
-        <v>1.006741950301923</v>
+        <v>1.071616293249206</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038119533437684</v>
+        <v>1.040978002916815</v>
       </c>
       <c r="J12">
-        <v>1.011675966299598</v>
+        <v>1.065151576543332</v>
       </c>
       <c r="K12">
-        <v>1.020612603349238</v>
+        <v>1.062326645857333</v>
       </c>
       <c r="L12">
-        <v>1.014383559579015</v>
+        <v>1.067100870590839</v>
       </c>
       <c r="M12">
-        <v>1.021741115090134</v>
+        <v>1.075099464919254</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9815231177834743</v>
+        <v>1.058746857295588</v>
       </c>
       <c r="D13">
-        <v>1.005945871834224</v>
+        <v>1.058859278599849</v>
       </c>
       <c r="E13">
-        <v>0.9996403190178899</v>
+        <v>1.063660062964155</v>
       </c>
       <c r="F13">
-        <v>1.007149977736097</v>
+        <v>1.071688582662069</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03824793838559</v>
+        <v>1.040994912915216</v>
       </c>
       <c r="J13">
-        <v>1.012035006849159</v>
+        <v>1.065213994963237</v>
       </c>
       <c r="K13">
-        <v>1.020916383738586</v>
+        <v>1.062378119787078</v>
       </c>
       <c r="L13">
-        <v>1.01473035610754</v>
+        <v>1.067161851225113</v>
       </c>
       <c r="M13">
-        <v>1.022097887357153</v>
+        <v>1.075162228740698</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9830749768915383</v>
+        <v>1.059011257376327</v>
       </c>
       <c r="D14">
-        <v>1.007100975505618</v>
+        <v>1.059059420565756</v>
       </c>
       <c r="E14">
-        <v>1.000940249051609</v>
+        <v>1.063891310983165</v>
       </c>
       <c r="F14">
-        <v>1.008481001703211</v>
+        <v>1.071925417022797</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038666365197524</v>
+        <v>1.041050259936621</v>
       </c>
       <c r="J14">
-        <v>1.013205897528437</v>
+        <v>1.065418463741439</v>
       </c>
       <c r="K14">
-        <v>1.021907003734724</v>
+        <v>1.062546720805813</v>
       </c>
       <c r="L14">
-        <v>1.015861401024197</v>
+        <v>1.067361615251593</v>
       </c>
       <c r="M14">
-        <v>1.023261493116184</v>
+        <v>1.075367834986455</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9840255813776276</v>
+        <v>1.059174133809283</v>
       </c>
       <c r="D15">
-        <v>1.00780874880991</v>
+        <v>1.059182704958274</v>
       </c>
       <c r="E15">
-        <v>1.001736807379196</v>
+        <v>1.064033770262268</v>
       </c>
       <c r="F15">
-        <v>1.00929662312135</v>
+        <v>1.072071317725526</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038922428850035</v>
+        <v>1.041084315290195</v>
       </c>
       <c r="J15">
-        <v>1.01392313901777</v>
+        <v>1.065544405683792</v>
       </c>
       <c r="K15">
-        <v>1.022513773053133</v>
+        <v>1.06265055781097</v>
       </c>
       <c r="L15">
-        <v>1.016554298307593</v>
+        <v>1.067484663226367</v>
       </c>
       <c r="M15">
-        <v>1.023974357206366</v>
+        <v>1.075494482143669</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9894766731550074</v>
+        <v>1.060121705269047</v>
       </c>
       <c r="D16">
-        <v>1.011870277943967</v>
+        <v>1.059899823851724</v>
       </c>
       <c r="E16">
-        <v>1.006308552664681</v>
+        <v>1.064862639850438</v>
       </c>
       <c r="F16">
-        <v>1.013977915061474</v>
+        <v>1.072920210209623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040386960980815</v>
+        <v>1.041281834550928</v>
       </c>
       <c r="J16">
-        <v>1.018035977074763</v>
+        <v>1.066276865919066</v>
       </c>
       <c r="K16">
-        <v>1.025992409865534</v>
+        <v>1.06325427101164</v>
       </c>
       <c r="L16">
-        <v>1.020528484981179</v>
+        <v>1.068200352142035</v>
       </c>
       <c r="M16">
-        <v>1.028063347965885</v>
+        <v>1.07623111375661</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9928268790422738</v>
+        <v>1.060715710773627</v>
       </c>
       <c r="D17">
-        <v>1.014368836823019</v>
+        <v>1.060349261535748</v>
       </c>
       <c r="E17">
-        <v>1.0091216743877</v>
+        <v>1.065382303904695</v>
       </c>
       <c r="F17">
-        <v>1.016858553690564</v>
+        <v>1.073452427387219</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041283608848919</v>
+        <v>1.04140512013282</v>
       </c>
       <c r="J17">
-        <v>1.020563528144949</v>
+        <v>1.066735815867276</v>
       </c>
       <c r="K17">
-        <v>1.028129533025479</v>
+        <v>1.063632384045326</v>
       </c>
       <c r="L17">
-        <v>1.022971635807334</v>
+        <v>1.068648845760389</v>
       </c>
       <c r="M17">
-        <v>1.030577310100169</v>
+        <v>1.076692738838733</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9947572009115097</v>
+        <v>1.061062049294343</v>
       </c>
       <c r="D18">
-        <v>1.015809239498524</v>
+        <v>1.06061127117706</v>
       </c>
       <c r="E18">
-        <v>1.010743688656311</v>
+        <v>1.06568532187809</v>
       </c>
       <c r="F18">
-        <v>1.018519533270577</v>
+        <v>1.073762764986949</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041798964794225</v>
+        <v>1.041476810148867</v>
       </c>
       <c r="J18">
-        <v>1.022019748615623</v>
+        <v>1.067003334132587</v>
       </c>
       <c r="K18">
-        <v>1.029360552783222</v>
+        <v>1.063852723293632</v>
       </c>
       <c r="L18">
-        <v>1.02437951364125</v>
+        <v>1.06891028794177</v>
       </c>
       <c r="M18">
-        <v>1.032026073138647</v>
+        <v>1.076961838471456</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9954114548283886</v>
+        <v>1.061180119140652</v>
       </c>
       <c r="D19">
-        <v>1.016297569070764</v>
+        <v>1.06070058613215</v>
       </c>
       <c r="E19">
-        <v>1.011293636052465</v>
+        <v>1.065788627527203</v>
       </c>
       <c r="F19">
-        <v>1.019082697682205</v>
+        <v>1.073868566034592</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041973417554356</v>
+        <v>1.041501217263119</v>
       </c>
       <c r="J19">
-        <v>1.022513291444914</v>
+        <v>1.067094520674274</v>
       </c>
       <c r="K19">
-        <v>1.029777724939181</v>
+        <v>1.06392781819121</v>
       </c>
       <c r="L19">
-        <v>1.024856719635163</v>
+        <v>1.068999406573157</v>
       </c>
       <c r="M19">
-        <v>1.032517150459049</v>
+        <v>1.077053567773304</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9924699192070225</v>
+        <v>1.060651993607726</v>
       </c>
       <c r="D20">
-        <v>1.014102535927991</v>
+        <v>1.060301055615953</v>
       </c>
       <c r="E20">
-        <v>1.008821819395795</v>
+        <v>1.065326558559462</v>
       </c>
       <c r="F20">
-        <v>1.016551498164748</v>
+        <v>1.073395335459162</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041188203933541</v>
+        <v>1.041391915563812</v>
       </c>
       <c r="J20">
-        <v>1.020294230947482</v>
+        <v>1.06668659348587</v>
       </c>
       <c r="K20">
-        <v>1.02790186052814</v>
+        <v>1.063591837609975</v>
       </c>
       <c r="L20">
-        <v>1.022711301378272</v>
+        <v>1.06860074287154</v>
       </c>
       <c r="M20">
-        <v>1.030309421843036</v>
+        <v>1.076643227265906</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826191557187055</v>
+        <v>1.058933404236012</v>
       </c>
       <c r="D21">
-        <v>1.006761648450351</v>
+        <v>1.059000489936497</v>
       </c>
       <c r="E21">
-        <v>1.000558368107954</v>
+        <v>1.063823218435757</v>
       </c>
       <c r="F21">
-        <v>1.008089984242013</v>
+        <v>1.071855679542489</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038543513853153</v>
+        <v>1.041033971156992</v>
       </c>
       <c r="J21">
-        <v>1.012861975860521</v>
+        <v>1.065358260713143</v>
       </c>
       <c r="K21">
-        <v>1.021616041748126</v>
+        <v>1.062497081108906</v>
       </c>
       <c r="L21">
-        <v>1.015529169750655</v>
+        <v>1.067302796657957</v>
       </c>
       <c r="M21">
-        <v>1.022919693373886</v>
+        <v>1.075307296088613</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9761862484521991</v>
+        <v>1.057851590935971</v>
       </c>
       <c r="D22">
-        <v>1.001976705706713</v>
+        <v>1.058181480720051</v>
       </c>
       <c r="E22">
-        <v>0.9951741214728433</v>
+        <v>1.062877128984111</v>
       </c>
       <c r="F22">
-        <v>1.002577104567725</v>
+        <v>1.070886734873252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036805337156576</v>
+        <v>1.040806920128907</v>
       </c>
       <c r="J22">
-        <v>1.008008439221464</v>
+        <v>1.064521429664941</v>
       </c>
       <c r="K22">
-        <v>1.01750910511541</v>
+        <v>1.061806862160727</v>
       </c>
       <c r="L22">
-        <v>1.010841790015676</v>
+        <v>1.066485279519103</v>
       </c>
       <c r="M22">
-        <v>1.018097680806261</v>
+        <v>1.074465878792818</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9796204485223817</v>
+        <v>1.058425203407647</v>
       </c>
       <c r="D23">
-        <v>1.004530222567676</v>
+        <v>1.058615777064443</v>
       </c>
       <c r="E23">
-        <v>0.9980472927444669</v>
+        <v>1.063378754224119</v>
       </c>
       <c r="F23">
-        <v>1.005518873964636</v>
+        <v>1.071400478206472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037734259668834</v>
+        <v>1.040927474057438</v>
       </c>
       <c r="J23">
-        <v>1.010599444586566</v>
+        <v>1.06496520843903</v>
       </c>
       <c r="K23">
-        <v>1.019701721563993</v>
+        <v>1.062172942089881</v>
       </c>
       <c r="L23">
-        <v>1.013343821665405</v>
+        <v>1.066918799736613</v>
       </c>
       <c r="M23">
-        <v>1.020671491159587</v>
+        <v>1.074912070609507</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9926312872674918</v>
+        <v>1.060680785069293</v>
       </c>
       <c r="D24">
-        <v>1.0142229180904</v>
+        <v>1.060322838228285</v>
       </c>
       <c r="E24">
-        <v>1.008957368956194</v>
+        <v>1.065351747770016</v>
       </c>
       <c r="F24">
-        <v>1.016690302618811</v>
+        <v>1.073421133139956</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041231336860723</v>
+        <v>1.041397882821241</v>
       </c>
       <c r="J24">
-        <v>1.020415970373473</v>
+        <v>1.066708835516142</v>
       </c>
       <c r="K24">
-        <v>1.028004783759177</v>
+        <v>1.063610159440828</v>
       </c>
       <c r="L24">
-        <v>1.022828988184723</v>
+        <v>1.068622478980506</v>
       </c>
       <c r="M24">
-        <v>1.030430523186861</v>
+        <v>1.076665599904442</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00680518669784</v>
+        <v>1.063292999338938</v>
       </c>
       <c r="D25">
-        <v>1.024811355289604</v>
+        <v>1.062298321835474</v>
       </c>
       <c r="E25">
-        <v>1.020886119404077</v>
+        <v>1.067637657734827</v>
       </c>
       <c r="F25">
-        <v>1.028906147046139</v>
+        <v>1.075762257629973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044992037054785</v>
+        <v>1.041935126903194</v>
       </c>
       <c r="J25">
-        <v>1.031105679693068</v>
+        <v>1.068725196677536</v>
       </c>
       <c r="K25">
-        <v>1.037036340448409</v>
+        <v>1.065269838600203</v>
       </c>
       <c r="L25">
-        <v>1.033168631919318</v>
+        <v>1.07059338074378</v>
       </c>
       <c r="M25">
-        <v>1.041071712660397</v>
+        <v>1.078694275121934</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065372528896858</v>
+        <v>1.01747437351226</v>
       </c>
       <c r="D2">
-        <v>1.063869726135687</v>
+        <v>1.032798248285482</v>
       </c>
       <c r="E2">
-        <v>1.06945816529658</v>
+        <v>1.029894292057022</v>
       </c>
       <c r="F2">
-        <v>1.077626730693453</v>
+        <v>1.038131836122032</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042356725517955</v>
+        <v>1.047780356847927</v>
       </c>
       <c r="J2">
-        <v>1.070327980816843</v>
+        <v>1.039144701628716</v>
       </c>
       <c r="K2">
-        <v>1.066587198548006</v>
+        <v>1.043818806624529</v>
       </c>
       <c r="L2">
-        <v>1.072160619036924</v>
+        <v>1.040952288182504</v>
       </c>
       <c r="M2">
-        <v>1.08030753462386</v>
+        <v>1.049084315177446</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066880291374384</v>
+        <v>1.024898110916465</v>
       </c>
       <c r="D3">
-        <v>1.065008334230027</v>
+        <v>1.038362346425987</v>
       </c>
       <c r="E3">
-        <v>1.070778536756293</v>
+        <v>1.036176659315871</v>
       </c>
       <c r="F3">
-        <v>1.078978983542374</v>
+        <v>1.044566163883326</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042658868434196</v>
+        <v>1.049694456541109</v>
       </c>
       <c r="J3">
-        <v>1.071488678508449</v>
+        <v>1.044732297199304</v>
       </c>
       <c r="K3">
-        <v>1.067540090210302</v>
+        <v>1.04852682068052</v>
       </c>
       <c r="L3">
-        <v>1.073295914759028</v>
+        <v>1.046366667561923</v>
       </c>
       <c r="M3">
-        <v>1.081476212547096</v>
+        <v>1.054658881641575</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067854960537445</v>
+        <v>1.029565409508405</v>
       </c>
       <c r="D4">
-        <v>1.065744020889579</v>
+        <v>1.041862769296057</v>
       </c>
       <c r="E4">
-        <v>1.071632255198699</v>
+        <v>1.04013234912872</v>
       </c>
       <c r="F4">
-        <v>1.079853312558215</v>
+        <v>1.048617614065344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042852545510387</v>
+        <v>1.050885350840473</v>
       </c>
       <c r="J4">
-        <v>1.072238341950822</v>
+        <v>1.048241916720627</v>
       </c>
       <c r="K4">
-        <v>1.068155022228101</v>
+        <v>1.051480895999989</v>
       </c>
       <c r="L4">
-        <v>1.074029328100156</v>
+        <v>1.04976938800631</v>
       </c>
       <c r="M4">
-        <v>1.082231211260302</v>
+        <v>1.058162647601923</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068264489347675</v>
+        <v>1.031496669873589</v>
       </c>
       <c r="D5">
-        <v>1.066053051444677</v>
+        <v>1.043311625664741</v>
       </c>
       <c r="E5">
-        <v>1.071991007378773</v>
+        <v>1.041770496077451</v>
       </c>
       <c r="F5">
-        <v>1.080220724962723</v>
+        <v>1.050295430659586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042933530659425</v>
+        <v>1.05137506168751</v>
       </c>
       <c r="J5">
-        <v>1.072553173250725</v>
+        <v>1.049693285428221</v>
       </c>
       <c r="K5">
-        <v>1.068413147586797</v>
+        <v>1.052701759049809</v>
       </c>
       <c r="L5">
-        <v>1.074337372281106</v>
+        <v>1.051176995124429</v>
       </c>
       <c r="M5">
-        <v>1.082548326332788</v>
+        <v>1.059612136557168</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068333238194525</v>
+        <v>1.031819175533318</v>
       </c>
       <c r="D6">
-        <v>1.066104924360007</v>
+        <v>1.043553595787465</v>
       </c>
       <c r="E6">
-        <v>1.072051234723898</v>
+        <v>1.042044130278807</v>
       </c>
       <c r="F6">
-        <v>1.080282406137341</v>
+        <v>1.050575691831994</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042947102852417</v>
+        <v>1.051456657623032</v>
       </c>
       <c r="J6">
-        <v>1.072606015753812</v>
+        <v>1.049935600294031</v>
       </c>
       <c r="K6">
-        <v>1.068456465083194</v>
+        <v>1.052905543731206</v>
       </c>
       <c r="L6">
-        <v>1.074389077794368</v>
+        <v>1.051412029642948</v>
       </c>
       <c r="M6">
-        <v>1.082601554678379</v>
+        <v>1.05985416889972</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067860433546391</v>
+        <v>1.029591334171499</v>
       </c>
       <c r="D7">
-        <v>1.065748151156951</v>
+        <v>1.041882216747325</v>
       </c>
       <c r="E7">
-        <v>1.071637049450723</v>
+        <v>1.040154333940148</v>
       </c>
       <c r="F7">
-        <v>1.079858222546054</v>
+        <v>1.048640131220921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042853629352201</v>
+        <v>1.05089193677992</v>
       </c>
       <c r="J7">
-        <v>1.072242550022213</v>
+        <v>1.048261402956384</v>
       </c>
       <c r="K7">
-        <v>1.068158472847897</v>
+        <v>1.051497290509725</v>
       </c>
       <c r="L7">
-        <v>1.074033445307505</v>
+        <v>1.049788284943981</v>
       </c>
       <c r="M7">
-        <v>1.082235449687457</v>
+        <v>1.058182106481927</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065882285600336</v>
+        <v>1.020012606918541</v>
       </c>
       <c r="D8">
-        <v>1.064254747681384</v>
+        <v>1.034700103396727</v>
       </c>
       <c r="E8">
-        <v>1.069904528414337</v>
+        <v>1.032040964307436</v>
       </c>
       <c r="F8">
-        <v>1.078083872198963</v>
+        <v>1.040330412685053</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042459215754636</v>
+        <v>1.048437397046914</v>
       </c>
       <c r="J8">
-        <v>1.070720533643294</v>
+        <v>1.04105579512019</v>
       </c>
       <c r="K8">
-        <v>1.06690957708747</v>
+        <v>1.045429691626433</v>
       </c>
       <c r="L8">
-        <v>1.072544548336917</v>
+        <v>1.042803730055741</v>
       </c>
       <c r="M8">
-        <v>1.080702748746967</v>
+        <v>1.05099044906962</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.062388947969976</v>
+        <v>1.00200142062203</v>
       </c>
       <c r="D9">
-        <v>1.061614823044059</v>
+        <v>1.021219683790624</v>
       </c>
       <c r="E9">
-        <v>1.066846418508551</v>
+        <v>1.016838293061678</v>
       </c>
       <c r="F9">
-        <v>1.074951907571959</v>
+        <v>1.024760764128316</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041750136788557</v>
+        <v>1.043724029040183</v>
       </c>
       <c r="J9">
-        <v>1.068027732235105</v>
+        <v>1.027483700987719</v>
       </c>
       <c r="K9">
-        <v>1.064696045314727</v>
+        <v>1.033977618423225</v>
       </c>
       <c r="L9">
-        <v>1.069911549159657</v>
+        <v>1.029663962698463</v>
       </c>
       <c r="M9">
-        <v>1.077992444153965</v>
+        <v>1.037464494359377</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060054558507437</v>
+        <v>0.9890947691036373</v>
       </c>
       <c r="D10">
-        <v>1.059849014048127</v>
+        <v>1.011585568870597</v>
       </c>
       <c r="E10">
-        <v>1.064803900057788</v>
+        <v>1.005988034621898</v>
       </c>
       <c r="F10">
-        <v>1.072860051467305</v>
+        <v>1.013649709524338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041267872235626</v>
+        <v>1.040284576390582</v>
       </c>
       <c r="J10">
-        <v>1.066224975744576</v>
+        <v>1.01774783966696</v>
       </c>
       <c r="K10">
-        <v>1.063211512394594</v>
+        <v>1.025748746260955</v>
       </c>
       <c r="L10">
-        <v>1.068149646741638</v>
+        <v>1.020250008425499</v>
       </c>
       <c r="M10">
-        <v>1.076178924115094</v>
+        <v>1.027776811420506</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059042349516443</v>
+        <v>0.9832567564037249</v>
       </c>
       <c r="D11">
-        <v>1.059082955269733</v>
+        <v>1.007236307630657</v>
       </c>
       <c r="E11">
-        <v>1.063918505300229</v>
+        <v>1.00109255492137</v>
       </c>
       <c r="F11">
-        <v>1.071953268280647</v>
+        <v>1.008636951966981</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041056763240856</v>
+        <v>1.038715345709818</v>
       </c>
       <c r="J11">
-        <v>1.065442506219419</v>
+        <v>1.013343052107375</v>
       </c>
       <c r="K11">
-        <v>1.062566544148675</v>
+        <v>1.022023035983036</v>
       </c>
       <c r="L11">
-        <v>1.067385105036827</v>
+        <v>1.015993896627469</v>
       </c>
       <c r="M11">
-        <v>1.075392011819893</v>
+        <v>1.023397805624552</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058666151541673</v>
+        <v>0.9810472547715586</v>
       </c>
       <c r="D12">
-        <v>1.058798184041611</v>
+        <v>1.005591754101745</v>
       </c>
       <c r="E12">
-        <v>1.063589478687138</v>
+        <v>0.9992418195999798</v>
       </c>
       <c r="F12">
-        <v>1.071616293249206</v>
+        <v>1.006741950301922</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040978002916815</v>
+        <v>1.038119533437684</v>
       </c>
       <c r="J12">
-        <v>1.065151576543332</v>
+        <v>1.011675966299596</v>
       </c>
       <c r="K12">
-        <v>1.062326645857333</v>
+        <v>1.020612603349237</v>
       </c>
       <c r="L12">
-        <v>1.067100870590839</v>
+        <v>1.014383559579013</v>
       </c>
       <c r="M12">
-        <v>1.075099464919254</v>
+        <v>1.021741115090133</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058746857295588</v>
+        <v>0.9815231177834731</v>
       </c>
       <c r="D13">
-        <v>1.058859278599849</v>
+        <v>1.005945871834223</v>
       </c>
       <c r="E13">
-        <v>1.063660062964155</v>
+        <v>0.9996403190178889</v>
       </c>
       <c r="F13">
-        <v>1.071688582662069</v>
+        <v>1.007149977736097</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040994912915216</v>
+        <v>1.038247938385589</v>
       </c>
       <c r="J13">
-        <v>1.065213994963237</v>
+        <v>1.012035006849157</v>
       </c>
       <c r="K13">
-        <v>1.062378119787078</v>
+        <v>1.020916383738585</v>
       </c>
       <c r="L13">
-        <v>1.067161851225113</v>
+        <v>1.014730356107539</v>
       </c>
       <c r="M13">
-        <v>1.075162228740698</v>
+        <v>1.022097887357152</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059011257376327</v>
+        <v>0.9830749768915371</v>
       </c>
       <c r="D14">
-        <v>1.059059420565756</v>
+        <v>1.007100975505616</v>
       </c>
       <c r="E14">
-        <v>1.063891310983165</v>
+        <v>1.000940249051608</v>
       </c>
       <c r="F14">
-        <v>1.071925417022797</v>
+        <v>1.00848100170321</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041050259936621</v>
+        <v>1.038666365197523</v>
       </c>
       <c r="J14">
-        <v>1.065418463741439</v>
+        <v>1.013205897528436</v>
       </c>
       <c r="K14">
-        <v>1.062546720805813</v>
+        <v>1.021907003734722</v>
       </c>
       <c r="L14">
-        <v>1.067361615251593</v>
+        <v>1.015861401024196</v>
       </c>
       <c r="M14">
-        <v>1.075367834986455</v>
+        <v>1.023261493116183</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.059174133809283</v>
+        <v>0.9840255813776264</v>
       </c>
       <c r="D15">
-        <v>1.059182704958274</v>
+        <v>1.007808748809909</v>
       </c>
       <c r="E15">
-        <v>1.064033770262268</v>
+        <v>1.001736807379195</v>
       </c>
       <c r="F15">
-        <v>1.072071317725526</v>
+        <v>1.009296623121348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041084315290195</v>
+        <v>1.038922428850034</v>
       </c>
       <c r="J15">
-        <v>1.065544405683792</v>
+        <v>1.013923139017769</v>
       </c>
       <c r="K15">
-        <v>1.06265055781097</v>
+        <v>1.022513773053132</v>
       </c>
       <c r="L15">
-        <v>1.067484663226367</v>
+        <v>1.016554298307592</v>
       </c>
       <c r="M15">
-        <v>1.075494482143669</v>
+        <v>1.023974357206365</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060121705269047</v>
+        <v>0.9894766731550066</v>
       </c>
       <c r="D16">
-        <v>1.059899823851724</v>
+        <v>1.011870277943966</v>
       </c>
       <c r="E16">
-        <v>1.064862639850438</v>
+        <v>1.00630855266468</v>
       </c>
       <c r="F16">
-        <v>1.072920210209623</v>
+        <v>1.013977915061473</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041281834550928</v>
+        <v>1.040386960980815</v>
       </c>
       <c r="J16">
-        <v>1.066276865919066</v>
+        <v>1.018035977074762</v>
       </c>
       <c r="K16">
-        <v>1.06325427101164</v>
+        <v>1.025992409865534</v>
       </c>
       <c r="L16">
-        <v>1.068200352142035</v>
+        <v>1.020528484981178</v>
       </c>
       <c r="M16">
-        <v>1.07623111375661</v>
+        <v>1.028063347965884</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060715710773627</v>
+        <v>0.9928268790422721</v>
       </c>
       <c r="D17">
-        <v>1.060349261535748</v>
+        <v>1.014368836823017</v>
       </c>
       <c r="E17">
-        <v>1.065382303904695</v>
+        <v>1.009121674387698</v>
       </c>
       <c r="F17">
-        <v>1.073452427387219</v>
+        <v>1.016858553690561</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04140512013282</v>
+        <v>1.041283608848918</v>
       </c>
       <c r="J17">
-        <v>1.066735815867276</v>
+        <v>1.020563528144947</v>
       </c>
       <c r="K17">
-        <v>1.063632384045326</v>
+        <v>1.028129533025477</v>
       </c>
       <c r="L17">
-        <v>1.068648845760389</v>
+        <v>1.022971635807332</v>
       </c>
       <c r="M17">
-        <v>1.076692738838733</v>
+        <v>1.030577310100166</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061062049294343</v>
+        <v>0.9947572009115081</v>
       </c>
       <c r="D18">
-        <v>1.06061127117706</v>
+        <v>1.015809239498522</v>
       </c>
       <c r="E18">
-        <v>1.06568532187809</v>
+        <v>1.01074368865631</v>
       </c>
       <c r="F18">
-        <v>1.073762764986949</v>
+        <v>1.018519533270576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041476810148867</v>
+        <v>1.041798964794225</v>
       </c>
       <c r="J18">
-        <v>1.067003334132587</v>
+        <v>1.022019748615622</v>
       </c>
       <c r="K18">
-        <v>1.063852723293632</v>
+        <v>1.029360552783221</v>
       </c>
       <c r="L18">
-        <v>1.06891028794177</v>
+        <v>1.024379513641248</v>
       </c>
       <c r="M18">
-        <v>1.076961838471456</v>
+        <v>1.032026073138646</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061180119140652</v>
+        <v>0.9954114548283892</v>
       </c>
       <c r="D19">
-        <v>1.06070058613215</v>
+        <v>1.016297569070764</v>
       </c>
       <c r="E19">
-        <v>1.065788627527203</v>
+        <v>1.011293636052465</v>
       </c>
       <c r="F19">
-        <v>1.073868566034592</v>
+        <v>1.019082697682206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041501217263119</v>
+        <v>1.041973417554356</v>
       </c>
       <c r="J19">
-        <v>1.067094520674274</v>
+        <v>1.022513291444915</v>
       </c>
       <c r="K19">
-        <v>1.06392781819121</v>
+        <v>1.029777724939181</v>
       </c>
       <c r="L19">
-        <v>1.068999406573157</v>
+        <v>1.024856719635164</v>
       </c>
       <c r="M19">
-        <v>1.077053567773304</v>
+        <v>1.03251715045905</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060651993607726</v>
+        <v>0.9924699192070213</v>
       </c>
       <c r="D20">
-        <v>1.060301055615953</v>
+        <v>1.01410253592799</v>
       </c>
       <c r="E20">
-        <v>1.065326558559462</v>
+        <v>1.008821819395793</v>
       </c>
       <c r="F20">
-        <v>1.073395335459162</v>
+        <v>1.016551498164747</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041391915563812</v>
+        <v>1.04118820393354</v>
       </c>
       <c r="J20">
-        <v>1.06668659348587</v>
+        <v>1.020294230947481</v>
       </c>
       <c r="K20">
-        <v>1.063591837609975</v>
+        <v>1.027901860528139</v>
       </c>
       <c r="L20">
-        <v>1.06860074287154</v>
+        <v>1.022711301378271</v>
       </c>
       <c r="M20">
-        <v>1.076643227265906</v>
+        <v>1.030309421843034</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058933404236012</v>
+        <v>0.9826191557187036</v>
       </c>
       <c r="D21">
-        <v>1.059000489936497</v>
+        <v>1.006761648450349</v>
       </c>
       <c r="E21">
-        <v>1.063823218435757</v>
+        <v>1.000558368107952</v>
       </c>
       <c r="F21">
-        <v>1.071855679542489</v>
+        <v>1.008089984242011</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041033971156992</v>
+        <v>1.038543513853152</v>
       </c>
       <c r="J21">
-        <v>1.065358260713143</v>
+        <v>1.012861975860519</v>
       </c>
       <c r="K21">
-        <v>1.062497081108906</v>
+        <v>1.021616041748125</v>
       </c>
       <c r="L21">
-        <v>1.067302796657957</v>
+        <v>1.015529169750653</v>
       </c>
       <c r="M21">
-        <v>1.075307296088613</v>
+        <v>1.022919693373884</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.057851590935971</v>
+        <v>0.9761862484521973</v>
       </c>
       <c r="D22">
-        <v>1.058181480720051</v>
+        <v>1.001976705706711</v>
       </c>
       <c r="E22">
-        <v>1.062877128984111</v>
+        <v>0.9951741214728412</v>
       </c>
       <c r="F22">
-        <v>1.070886734873252</v>
+        <v>1.002577104567723</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040806920128907</v>
+        <v>1.036805337156575</v>
       </c>
       <c r="J22">
-        <v>1.064521429664941</v>
+        <v>1.008008439221462</v>
       </c>
       <c r="K22">
-        <v>1.061806862160727</v>
+        <v>1.017509105115408</v>
       </c>
       <c r="L22">
-        <v>1.066485279519103</v>
+        <v>1.010841790015674</v>
       </c>
       <c r="M22">
-        <v>1.074465878792818</v>
+        <v>1.018097680806258</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.058425203407647</v>
+        <v>0.9796204485223802</v>
       </c>
       <c r="D23">
-        <v>1.058615777064443</v>
+        <v>1.004530222567675</v>
       </c>
       <c r="E23">
-        <v>1.063378754224119</v>
+        <v>0.998047292744465</v>
       </c>
       <c r="F23">
-        <v>1.071400478206472</v>
+        <v>1.005518873964634</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040927474057438</v>
+        <v>1.037734259668833</v>
       </c>
       <c r="J23">
-        <v>1.06496520843903</v>
+        <v>1.010599444586565</v>
       </c>
       <c r="K23">
-        <v>1.062172942089881</v>
+        <v>1.019701721563992</v>
       </c>
       <c r="L23">
-        <v>1.066918799736613</v>
+        <v>1.013343821665404</v>
       </c>
       <c r="M23">
-        <v>1.074912070609507</v>
+        <v>1.020671491159585</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060680785069293</v>
+        <v>0.9926312872674899</v>
       </c>
       <c r="D24">
-        <v>1.060322838228285</v>
+        <v>1.014222918090399</v>
       </c>
       <c r="E24">
-        <v>1.065351747770016</v>
+        <v>1.008957368956192</v>
       </c>
       <c r="F24">
-        <v>1.073421133139956</v>
+        <v>1.016690302618809</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041397882821241</v>
+        <v>1.041231336860723</v>
       </c>
       <c r="J24">
-        <v>1.066708835516142</v>
+        <v>1.020415970373472</v>
       </c>
       <c r="K24">
-        <v>1.063610159440828</v>
+        <v>1.028004783759175</v>
       </c>
       <c r="L24">
-        <v>1.068622478980506</v>
+        <v>1.022828988184721</v>
       </c>
       <c r="M24">
-        <v>1.076665599904442</v>
+        <v>1.030430523186859</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063292999338938</v>
+        <v>1.006805186697841</v>
       </c>
       <c r="D25">
-        <v>1.062298321835474</v>
+        <v>1.024811355289604</v>
       </c>
       <c r="E25">
-        <v>1.067637657734827</v>
+        <v>1.020886119404078</v>
       </c>
       <c r="F25">
-        <v>1.075762257629973</v>
+        <v>1.028906147046139</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041935126903194</v>
+        <v>1.044992037054785</v>
       </c>
       <c r="J25">
-        <v>1.068725196677536</v>
+        <v>1.031105679693069</v>
       </c>
       <c r="K25">
-        <v>1.065269838600203</v>
+        <v>1.037036340448409</v>
       </c>
       <c r="L25">
-        <v>1.07059338074378</v>
+        <v>1.033168631919318</v>
       </c>
       <c r="M25">
-        <v>1.078694275121934</v>
+        <v>1.041071712660397</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01747437351226</v>
+        <v>1.005180950192862</v>
       </c>
       <c r="D2">
-        <v>1.032798248285482</v>
+        <v>1.023568827400199</v>
       </c>
       <c r="E2">
-        <v>1.029894292057022</v>
+        <v>1.020605105853785</v>
       </c>
       <c r="F2">
-        <v>1.038131836122032</v>
+        <v>1.031006698708853</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047780356847927</v>
+        <v>1.045575643128805</v>
       </c>
       <c r="J2">
-        <v>1.039144701628716</v>
+        <v>1.027207796529093</v>
       </c>
       <c r="K2">
-        <v>1.043818806624529</v>
+        <v>1.034709292956723</v>
       </c>
       <c r="L2">
-        <v>1.040952288182504</v>
+        <v>1.031784652645962</v>
       </c>
       <c r="M2">
-        <v>1.049084315177446</v>
+        <v>1.042050322521006</v>
       </c>
       <c r="N2">
         <v>1.005712725503999</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041852398938555</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035612718228128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024898110916465</v>
+        <v>1.008938777863638</v>
       </c>
       <c r="D3">
-        <v>1.038362346425987</v>
+        <v>1.025967274428211</v>
       </c>
       <c r="E3">
-        <v>1.036176659315871</v>
+        <v>1.023521230940825</v>
       </c>
       <c r="F3">
-        <v>1.044566163883326</v>
+        <v>1.033800091435555</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049694456541109</v>
+        <v>1.046196271788466</v>
       </c>
       <c r="J3">
-        <v>1.044732297199304</v>
+        <v>1.029188693783844</v>
       </c>
       <c r="K3">
-        <v>1.04852682068052</v>
+        <v>1.036278339724197</v>
       </c>
       <c r="L3">
-        <v>1.046366667561923</v>
+        <v>1.033861745188238</v>
       </c>
       <c r="M3">
-        <v>1.054658881641575</v>
+        <v>1.044018015296049</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043409691254481</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036719503980613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029565409508405</v>
+        <v>1.011329298451114</v>
       </c>
       <c r="D4">
-        <v>1.041862769296057</v>
+        <v>1.027496202871614</v>
       </c>
       <c r="E4">
-        <v>1.04013234912872</v>
+        <v>1.02538233528947</v>
       </c>
       <c r="F4">
-        <v>1.048617614065344</v>
+        <v>1.035583857189893</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050885350840473</v>
+        <v>1.046581722571841</v>
       </c>
       <c r="J4">
-        <v>1.048241916720627</v>
+        <v>1.030447573314537</v>
       </c>
       <c r="K4">
-        <v>1.051480895999989</v>
+        <v>1.037273723533021</v>
       </c>
       <c r="L4">
-        <v>1.04976938800631</v>
+        <v>1.035183773453763</v>
       </c>
       <c r="M4">
-        <v>1.058162647601923</v>
+        <v>1.045270978140872</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044401322681462</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037424229815346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031496669873589</v>
+        <v>1.012327813579319</v>
       </c>
       <c r="D5">
-        <v>1.043311625664741</v>
+        <v>1.028137692162234</v>
       </c>
       <c r="E5">
-        <v>1.041770496077451</v>
+        <v>1.02616133549814</v>
       </c>
       <c r="F5">
-        <v>1.050295430659586</v>
+        <v>1.036330272670847</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05137506168751</v>
+        <v>1.046741844453249</v>
       </c>
       <c r="J5">
-        <v>1.049693285428221</v>
+        <v>1.030974458766911</v>
       </c>
       <c r="K5">
-        <v>1.052701759049809</v>
+        <v>1.037691585184295</v>
       </c>
       <c r="L5">
-        <v>1.051176995124429</v>
+        <v>1.035736995719826</v>
       </c>
       <c r="M5">
-        <v>1.059612136557168</v>
+        <v>1.0457950198575</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044816064217686</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037726887652534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031819175533318</v>
+        <v>1.012498663591326</v>
       </c>
       <c r="D6">
-        <v>1.043553595787465</v>
+        <v>1.028250093933325</v>
       </c>
       <c r="E6">
-        <v>1.042044130278807</v>
+        <v>1.026294960430112</v>
       </c>
       <c r="F6">
-        <v>1.050575691831994</v>
+        <v>1.036457781233586</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051456657623032</v>
+        <v>1.046770815653016</v>
       </c>
       <c r="J6">
-        <v>1.049935600294031</v>
+        <v>1.03106627177867</v>
       </c>
       <c r="K6">
-        <v>1.052905543731206</v>
+        <v>1.037766425725596</v>
       </c>
       <c r="L6">
-        <v>1.051412029642948</v>
+        <v>1.035832727188168</v>
       </c>
       <c r="M6">
-        <v>1.05985416889972</v>
+        <v>1.045885209947641</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044887443199412</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037788577475176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029591334171499</v>
+        <v>1.011352754725803</v>
       </c>
       <c r="D7">
-        <v>1.041882216747325</v>
+        <v>1.027518224421191</v>
       </c>
       <c r="E7">
-        <v>1.040154333940148</v>
+        <v>1.025401315655101</v>
       </c>
       <c r="F7">
-        <v>1.048640131220921</v>
+        <v>1.035600586629948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05089193677992</v>
+        <v>1.046590079869753</v>
       </c>
       <c r="J7">
-        <v>1.048261402956384</v>
+        <v>1.030464461433656</v>
       </c>
       <c r="K7">
-        <v>1.051497290509725</v>
+        <v>1.037292602653223</v>
       </c>
       <c r="L7">
-        <v>1.049788284943981</v>
+        <v>1.035199636627058</v>
       </c>
       <c r="M7">
-        <v>1.058182106481927</v>
+        <v>1.045284658592649</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044412149783529</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037457753613534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020012606918541</v>
+        <v>1.006472208142926</v>
       </c>
       <c r="D8">
-        <v>1.034700103396727</v>
+        <v>1.024400887073955</v>
       </c>
       <c r="E8">
-        <v>1.032040964307436</v>
+        <v>1.021606789214082</v>
       </c>
       <c r="F8">
-        <v>1.040330412685053</v>
+        <v>1.03196418165916</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048437397046914</v>
+        <v>1.045796481084303</v>
       </c>
       <c r="J8">
-        <v>1.04105579512019</v>
+        <v>1.027894316866697</v>
       </c>
       <c r="K8">
-        <v>1.045429691626433</v>
+        <v>1.035260173471811</v>
       </c>
       <c r="L8">
-        <v>1.042803730055741</v>
+        <v>1.0325018254264</v>
       </c>
       <c r="M8">
-        <v>1.05099044906962</v>
+        <v>1.042727908574611</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04238866166708</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.036025231249151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00200142062203</v>
+        <v>0.9975278916178968</v>
       </c>
       <c r="D9">
-        <v>1.021219683790624</v>
+        <v>1.018704000176216</v>
       </c>
       <c r="E9">
-        <v>1.016838293061678</v>
+        <v>1.014701009705527</v>
       </c>
       <c r="F9">
-        <v>1.024760764128316</v>
+        <v>1.025356655345537</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043724029040183</v>
+        <v>1.044262399572433</v>
       </c>
       <c r="J9">
-        <v>1.027483700987719</v>
+        <v>1.023168249442287</v>
       </c>
       <c r="K9">
-        <v>1.033977618423225</v>
+        <v>1.031500735559344</v>
       </c>
       <c r="L9">
-        <v>1.029663962698463</v>
+        <v>1.027559992525611</v>
       </c>
       <c r="M9">
-        <v>1.037464494359377</v>
+        <v>1.03805131100366</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038687448431166</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03336384951098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9890947691036373</v>
+        <v>0.9913937590080861</v>
       </c>
       <c r="D10">
-        <v>1.011585568870597</v>
+        <v>1.014827720844963</v>
       </c>
       <c r="E10">
-        <v>1.005988034621898</v>
+        <v>1.010035435762765</v>
       </c>
       <c r="F10">
-        <v>1.013649709524338</v>
+        <v>1.020946465386352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040284576390582</v>
+        <v>1.04318266633239</v>
       </c>
       <c r="J10">
-        <v>1.01774783966696</v>
+        <v>1.01995304446322</v>
       </c>
       <c r="K10">
-        <v>1.025748746260955</v>
+        <v>1.028934319486777</v>
       </c>
       <c r="L10">
-        <v>1.020250008425499</v>
+        <v>1.02422583087235</v>
       </c>
       <c r="M10">
-        <v>1.027776811420506</v>
+        <v>1.034947550916346</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036282595796265</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031566109311363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9832567564037249</v>
+        <v>0.9892262853686613</v>
       </c>
       <c r="D11">
-        <v>1.007236307630657</v>
+        <v>1.013531863912974</v>
       </c>
       <c r="E11">
-        <v>1.00109255492137</v>
+        <v>1.008674233580164</v>
       </c>
       <c r="F11">
-        <v>1.008636951966981</v>
+        <v>1.020048483882805</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038715345709818</v>
+        <v>1.04293546660934</v>
       </c>
       <c r="J11">
-        <v>1.013343052107375</v>
+        <v>1.019054234913894</v>
       </c>
       <c r="K11">
-        <v>1.022023035983036</v>
+        <v>1.028203022719432</v>
       </c>
       <c r="L11">
-        <v>1.015993896627469</v>
+        <v>1.023434399798236</v>
       </c>
       <c r="M11">
-        <v>1.023397805624552</v>
+        <v>1.034601966596002</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036446337700572</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031082061365603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9810472547715586</v>
+        <v>0.9886157390985036</v>
       </c>
       <c r="D12">
-        <v>1.005591754101745</v>
+        <v>1.013194905891726</v>
       </c>
       <c r="E12">
-        <v>0.9992418195999798</v>
+        <v>1.008418638423322</v>
       </c>
       <c r="F12">
-        <v>1.006741950301922</v>
+        <v>1.020092748345808</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038119533437684</v>
+        <v>1.042928803935397</v>
       </c>
       <c r="J12">
-        <v>1.011675966299596</v>
+        <v>1.018909839971577</v>
       </c>
       <c r="K12">
-        <v>1.020612603349237</v>
+        <v>1.02807360442581</v>
       </c>
       <c r="L12">
-        <v>1.014383559579013</v>
+        <v>1.023386308583407</v>
       </c>
       <c r="M12">
-        <v>1.021741115090133</v>
+        <v>1.034844868170172</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036965474393194</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030990557545658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9815231177834731</v>
+        <v>0.989175656704485</v>
       </c>
       <c r="D13">
-        <v>1.005945871834223</v>
+        <v>1.013588651794342</v>
       </c>
       <c r="E13">
-        <v>0.9996403190178889</v>
+        <v>1.009009127509676</v>
       </c>
       <c r="F13">
-        <v>1.007149977736097</v>
+        <v>1.020885257826378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038247938385589</v>
+        <v>1.043118780663783</v>
       </c>
       <c r="J13">
-        <v>1.012035006849157</v>
+        <v>1.019350967978992</v>
       </c>
       <c r="K13">
-        <v>1.020916383738585</v>
+        <v>1.028416888578624</v>
       </c>
       <c r="L13">
-        <v>1.014730356107539</v>
+        <v>1.023922277264758</v>
       </c>
       <c r="M13">
-        <v>1.022097887357152</v>
+        <v>1.035580248443449</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037823990724146</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031230767481953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9830749768915371</v>
+        <v>0.9900976905643183</v>
       </c>
       <c r="D14">
-        <v>1.007100975505616</v>
+        <v>1.014196579845028</v>
       </c>
       <c r="E14">
-        <v>1.000940249051608</v>
+        <v>1.009804304010889</v>
       </c>
       <c r="F14">
-        <v>1.00848100170321</v>
+        <v>1.021777081569518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038666365197523</v>
+        <v>1.043340850888673</v>
       </c>
       <c r="J14">
-        <v>1.013205897528436</v>
+        <v>1.019924551427853</v>
       </c>
       <c r="K14">
-        <v>1.021907003734722</v>
+        <v>1.028872269715973</v>
       </c>
       <c r="L14">
-        <v>1.015861401024196</v>
+        <v>1.02456039367422</v>
       </c>
       <c r="M14">
-        <v>1.023261493116183</v>
+        <v>1.03631612284116</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038579182038843</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031554171833323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9840255813776264</v>
+        <v>0.9905825549108945</v>
       </c>
       <c r="D15">
-        <v>1.007808748809909</v>
+        <v>1.014509960940541</v>
       </c>
       <c r="E15">
-        <v>1.001736807379195</v>
+        <v>1.010191560441696</v>
       </c>
       <c r="F15">
-        <v>1.009296623121348</v>
+        <v>1.022173224539187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038922428850034</v>
+        <v>1.043441386360504</v>
       </c>
       <c r="J15">
-        <v>1.013923139017769</v>
+        <v>1.020198931654886</v>
       </c>
       <c r="K15">
-        <v>1.022513773053132</v>
+        <v>1.029092894675788</v>
       </c>
       <c r="L15">
-        <v>1.016554298307592</v>
+        <v>1.024852930249389</v>
       </c>
       <c r="M15">
-        <v>1.023974357206365</v>
+        <v>1.036619085178208</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03885620945885</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031716062328214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9894766731550066</v>
+        <v>0.9930694119785195</v>
       </c>
       <c r="D16">
-        <v>1.011870277943966</v>
+        <v>1.016073779213409</v>
       </c>
       <c r="E16">
-        <v>1.00630855266468</v>
+        <v>1.01205537320347</v>
       </c>
       <c r="F16">
-        <v>1.013977915061473</v>
+        <v>1.023917530553382</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040386960980815</v>
+        <v>1.043876404671496</v>
       </c>
       <c r="J16">
-        <v>1.018035977074762</v>
+        <v>1.021483053449953</v>
       </c>
       <c r="K16">
-        <v>1.025992409865534</v>
+        <v>1.030122913382328</v>
       </c>
       <c r="L16">
-        <v>1.020528484981178</v>
+        <v>1.026174274244029</v>
       </c>
       <c r="M16">
-        <v>1.028063347965884</v>
+        <v>1.037832518974085</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039776559523406</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032447510753382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,81 +1228,105 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9928268790422721</v>
+        <v>0.9944965075930383</v>
       </c>
       <c r="D17">
-        <v>1.014368836823017</v>
+        <v>1.016957485949515</v>
       </c>
       <c r="E17">
-        <v>1.009121674387698</v>
+        <v>1.013070470071103</v>
       </c>
       <c r="F17">
-        <v>1.016858553690561</v>
+        <v>1.024784727283415</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041283608848918</v>
+        <v>1.044091638358854</v>
       </c>
       <c r="J17">
-        <v>1.020563528144947</v>
+        <v>1.022167832168034</v>
       </c>
       <c r="K17">
-        <v>1.028129533025477</v>
+        <v>1.030674581294098</v>
       </c>
       <c r="L17">
-        <v>1.022971635807332</v>
+        <v>1.026853143084246</v>
       </c>
       <c r="M17">
-        <v>1.030577310100166</v>
+        <v>1.03837171140566</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040073623668534</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032840164171127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9947572009115081</v>
+        <v>0.9951310332685853</v>
       </c>
       <c r="D18">
-        <v>1.015809239498522</v>
+        <v>1.017321252082992</v>
       </c>
       <c r="E18">
-        <v>1.01074368865631</v>
+        <v>1.013419786891879</v>
       </c>
       <c r="F18">
-        <v>1.018519533270576</v>
+        <v>1.02492616402041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041798964794225</v>
+        <v>1.044128963614263</v>
       </c>
       <c r="J18">
-        <v>1.022019748615622</v>
+        <v>1.022379254709983</v>
       </c>
       <c r="K18">
-        <v>1.029360552783221</v>
+        <v>1.030847549415255</v>
       </c>
       <c r="L18">
-        <v>1.024379513641248</v>
+        <v>1.027010829267909</v>
       </c>
       <c r="M18">
-        <v>1.032026073138646</v>
+        <v>1.038328076702711</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039801237891224</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032950769897723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9954114548283892</v>
+        <v>0.995062295457624</v>
       </c>
       <c r="D19">
-        <v>1.016297569070764</v>
+        <v>1.017235317177928</v>
       </c>
       <c r="E19">
-        <v>1.011293636052465</v>
+        <v>1.013173427161151</v>
       </c>
       <c r="F19">
-        <v>1.019082697682206</v>
+        <v>1.024411450955175</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041973417554356</v>
+        <v>1.044017236034037</v>
       </c>
       <c r="J19">
-        <v>1.022513291444915</v>
+        <v>1.022177423404572</v>
       </c>
       <c r="K19">
-        <v>1.029777724939181</v>
+        <v>1.030700048952506</v>
       </c>
       <c r="L19">
-        <v>1.024856719635164</v>
+        <v>1.026705234208087</v>
       </c>
       <c r="M19">
-        <v>1.03251715045905</v>
+        <v>1.037759349465626</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039025667207887</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032852905924795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9924699192070213</v>
+        <v>0.9930101574427532</v>
       </c>
       <c r="D20">
-        <v>1.01410253592799</v>
+        <v>1.015864998586041</v>
       </c>
       <c r="E20">
-        <v>1.008821819395793</v>
+        <v>1.011266155610595</v>
       </c>
       <c r="F20">
-        <v>1.016551498164747</v>
+        <v>1.022108291007866</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04118820393354</v>
+        <v>1.043482453450205</v>
       </c>
       <c r="J20">
-        <v>1.020294230947481</v>
+        <v>1.020813210540922</v>
       </c>
       <c r="K20">
-        <v>1.027901860528139</v>
+        <v>1.02963450190435</v>
       </c>
       <c r="L20">
-        <v>1.022711301378271</v>
+        <v>1.025113754368538</v>
       </c>
       <c r="M20">
-        <v>1.030309421843034</v>
+        <v>1.03577322189795</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03692545208036</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032103456535121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9826191557187036</v>
+        <v>0.9883031915407422</v>
       </c>
       <c r="D21">
-        <v>1.006761648450349</v>
+        <v>1.012883172026549</v>
       </c>
       <c r="E21">
-        <v>1.000558368107952</v>
+        <v>1.007645127422309</v>
       </c>
       <c r="F21">
-        <v>1.008089984242011</v>
+        <v>1.018612429563413</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038543513853152</v>
+        <v>1.04260941564973</v>
       </c>
       <c r="J21">
-        <v>1.012861975860519</v>
+        <v>1.018298224542447</v>
       </c>
       <c r="K21">
-        <v>1.021616041748125</v>
+        <v>1.027624511443618</v>
       </c>
       <c r="L21">
-        <v>1.015529169750653</v>
+        <v>1.02248309377513</v>
       </c>
       <c r="M21">
-        <v>1.022919693373884</v>
+        <v>1.033249559957053</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034887164706402</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030685549540414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9761862484521973</v>
+        <v>0.9853092192590903</v>
       </c>
       <c r="D22">
-        <v>1.001976705706711</v>
+        <v>1.010988943557801</v>
       </c>
       <c r="E22">
-        <v>0.9951741214728412</v>
+        <v>1.005366687170267</v>
       </c>
       <c r="F22">
-        <v>1.002577104567723</v>
+        <v>1.01643992454183</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036805337156575</v>
+        <v>1.042049149916514</v>
       </c>
       <c r="J22">
-        <v>1.008008439221462</v>
+        <v>1.016708026972491</v>
       </c>
       <c r="K22">
-        <v>1.017509105115408</v>
+        <v>1.026345805978457</v>
       </c>
       <c r="L22">
-        <v>1.010841790015674</v>
+        <v>1.020832573392707</v>
       </c>
       <c r="M22">
-        <v>1.018097680806258</v>
+        <v>1.031692590050167</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033654916645676</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029767858373201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9796204485223802</v>
+        <v>0.9868923976279127</v>
       </c>
       <c r="D23">
-        <v>1.004530222567675</v>
+        <v>1.01198393354119</v>
       </c>
       <c r="E23">
-        <v>0.998047292744465</v>
+        <v>1.006569800080953</v>
       </c>
       <c r="F23">
-        <v>1.005518873964634</v>
+        <v>1.01758833536485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037734259668833</v>
+        <v>1.042342303259529</v>
       </c>
       <c r="J23">
-        <v>1.010599444586565</v>
+        <v>1.017544868818496</v>
       </c>
       <c r="K23">
-        <v>1.019701721563992</v>
+        <v>1.02701426498558</v>
       </c>
       <c r="L23">
-        <v>1.013343821665404</v>
+        <v>1.021702399307804</v>
       </c>
       <c r="M23">
-        <v>1.020671491159585</v>
+        <v>1.032514299298924</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034305250375257</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030230801854914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9926312872674899</v>
+        <v>0.9930204775749996</v>
       </c>
       <c r="D24">
-        <v>1.014222918090399</v>
+        <v>1.015855985871804</v>
       </c>
       <c r="E24">
-        <v>1.008957368956192</v>
+        <v>1.011245470419204</v>
       </c>
       <c r="F24">
-        <v>1.016690302618809</v>
+        <v>1.022052196767095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041231336860723</v>
+        <v>1.043464703683171</v>
       </c>
       <c r="J24">
-        <v>1.020415970373472</v>
+        <v>1.020789871145137</v>
       </c>
       <c r="K24">
-        <v>1.028004783759175</v>
+        <v>1.029610259035322</v>
       </c>
       <c r="L24">
-        <v>1.022828988184721</v>
+        <v>1.025077939645385</v>
       </c>
       <c r="M24">
-        <v>1.030430523186859</v>
+        <v>1.035702810668119</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036828760770747</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032058771154702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006805186697841</v>
+        <v>0.9998972473199143</v>
       </c>
       <c r="D25">
-        <v>1.024811355289604</v>
+        <v>1.020220371343111</v>
       </c>
       <c r="E25">
-        <v>1.020886119404078</v>
+        <v>1.016525603429787</v>
       </c>
       <c r="F25">
-        <v>1.028906147046139</v>
+        <v>1.027099102387404</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044992037054785</v>
+        <v>1.04468405933669</v>
       </c>
       <c r="J25">
-        <v>1.031105679693069</v>
+        <v>1.024428069997414</v>
       </c>
       <c r="K25">
-        <v>1.037036340448409</v>
+        <v>1.032512696679469</v>
       </c>
       <c r="L25">
-        <v>1.033168631919318</v>
+        <v>1.028872684990511</v>
       </c>
       <c r="M25">
-        <v>1.041071712660397</v>
+        <v>1.039290815990066</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03966843532533</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034108086124595</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005180950192862</v>
+        <v>1.004710173536915</v>
       </c>
       <c r="D2">
-        <v>1.023568827400199</v>
+        <v>1.022862566662746</v>
       </c>
       <c r="E2">
-        <v>1.020605105853785</v>
+        <v>1.020236241775523</v>
       </c>
       <c r="F2">
-        <v>1.031006698708853</v>
+        <v>1.030706948925936</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045575643128805</v>
+        <v>1.045296387137594</v>
       </c>
       <c r="J2">
-        <v>1.027207796529093</v>
+        <v>1.026750911059481</v>
       </c>
       <c r="K2">
-        <v>1.034709292956723</v>
+        <v>1.034012319584753</v>
       </c>
       <c r="L2">
-        <v>1.031784652645962</v>
+        <v>1.031420672543272</v>
       </c>
       <c r="M2">
-        <v>1.042050322521006</v>
+        <v>1.041754441690478</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041852398938555</v>
+        <v>1.041618229499849</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035612718228128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03512870308054</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021121230373258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008938777863638</v>
+        <v>1.008359650297409</v>
       </c>
       <c r="D3">
-        <v>1.025967274428211</v>
+        <v>1.025105351130279</v>
       </c>
       <c r="E3">
-        <v>1.023521230940825</v>
+        <v>1.023063257876831</v>
       </c>
       <c r="F3">
-        <v>1.033800091435555</v>
+        <v>1.033429324853578</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046196271788466</v>
+        <v>1.045850237495122</v>
       </c>
       <c r="J3">
-        <v>1.029188693783844</v>
+        <v>1.0286249883018</v>
       </c>
       <c r="K3">
-        <v>1.036278339724197</v>
+        <v>1.035426773583868</v>
       </c>
       <c r="L3">
-        <v>1.033861745188238</v>
+        <v>1.033409305288991</v>
       </c>
       <c r="M3">
-        <v>1.044018015296049</v>
+        <v>1.043651618143687</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043409691254481</v>
+        <v>1.04311971358126</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036719503980613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036125899962819</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021401245012007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011329298451114</v>
+        <v>1.010682025908309</v>
       </c>
       <c r="D4">
-        <v>1.027496202871614</v>
+        <v>1.026535803058148</v>
       </c>
       <c r="E4">
-        <v>1.02538233528947</v>
+        <v>1.024868277543751</v>
       </c>
       <c r="F4">
-        <v>1.035583857189893</v>
+        <v>1.035168406326959</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046581722571841</v>
+        <v>1.046193410061065</v>
       </c>
       <c r="J4">
-        <v>1.030447573314537</v>
+        <v>1.02981637589788</v>
       </c>
       <c r="K4">
-        <v>1.037273723533021</v>
+        <v>1.036324175181766</v>
       </c>
       <c r="L4">
-        <v>1.035183773453763</v>
+        <v>1.034675550439057</v>
       </c>
       <c r="M4">
-        <v>1.045270978140872</v>
+        <v>1.044860128652809</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044401322681462</v>
+        <v>1.044076164533469</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037424229815346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036761425547151</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02157651244738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012327813579319</v>
+        <v>1.01165227600061</v>
       </c>
       <c r="D5">
-        <v>1.028137692162234</v>
+        <v>1.027136343220225</v>
       </c>
       <c r="E5">
-        <v>1.02616133549814</v>
+        <v>1.025624003997186</v>
       </c>
       <c r="F5">
-        <v>1.036330272670847</v>
+        <v>1.035896282233868</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046741844453249</v>
+        <v>1.046335933019095</v>
       </c>
       <c r="J5">
-        <v>1.030974458766911</v>
+        <v>1.030315198934827</v>
       </c>
       <c r="K5">
-        <v>1.037691585184295</v>
+        <v>1.036701252036344</v>
       </c>
       <c r="L5">
-        <v>1.035736995719826</v>
+        <v>1.035205600110818</v>
       </c>
       <c r="M5">
-        <v>1.0457950198575</v>
+        <v>1.045365708430099</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044816064217686</v>
+        <v>1.04447629494714</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037726887652534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037035957328494</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021650027207329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012498663591326</v>
+        <v>1.011818323741056</v>
       </c>
       <c r="D6">
-        <v>1.028250093933325</v>
+        <v>1.027241813244929</v>
       </c>
       <c r="E6">
-        <v>1.026294960430112</v>
+        <v>1.025753669893275</v>
       </c>
       <c r="F6">
-        <v>1.036457781233586</v>
+        <v>1.036020638107617</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046770815653016</v>
+        <v>1.046361910614774</v>
       </c>
       <c r="J6">
-        <v>1.03106627177867</v>
+        <v>1.03040224140036</v>
       </c>
       <c r="K6">
-        <v>1.037766425725596</v>
+        <v>1.036769186736066</v>
       </c>
       <c r="L6">
-        <v>1.035832727188168</v>
+        <v>1.035297388795876</v>
       </c>
       <c r="M6">
-        <v>1.045885209947641</v>
+        <v>1.045452758296753</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044887443199412</v>
+        <v>1.04454518869951</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037788577475176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037093634753679</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021663785350372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011352754725803</v>
+        <v>1.010704871873683</v>
       </c>
       <c r="D7">
-        <v>1.027518224421191</v>
+        <v>1.026557035587711</v>
       </c>
       <c r="E7">
-        <v>1.025401315655101</v>
+        <v>1.024886742732779</v>
       </c>
       <c r="F7">
-        <v>1.035600586629948</v>
+        <v>1.035184727943327</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046590079869753</v>
+        <v>1.046201387891149</v>
       </c>
       <c r="J7">
-        <v>1.030464461433656</v>
+        <v>1.029832661999459</v>
       </c>
       <c r="K7">
-        <v>1.037292602653223</v>
+        <v>1.036342270009479</v>
       </c>
       <c r="L7">
-        <v>1.035199636627058</v>
+        <v>1.034690902070251</v>
       </c>
       <c r="M7">
-        <v>1.045284658592649</v>
+        <v>1.044873404083533</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044412149783529</v>
+        <v>1.044086671094931</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037457753613534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036796398056941</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021581518383015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006472208142926</v>
+        <v>1.005964059593182</v>
       </c>
       <c r="D8">
-        <v>1.024400887073955</v>
+        <v>1.023641203185516</v>
       </c>
       <c r="E8">
-        <v>1.021606789214082</v>
+        <v>1.021207181105138</v>
       </c>
       <c r="F8">
-        <v>1.03196418165916</v>
+        <v>1.031639930713986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045796481084303</v>
+        <v>1.045494253180107</v>
       </c>
       <c r="J8">
-        <v>1.027894316866697</v>
+        <v>1.027400660437459</v>
       </c>
       <c r="K8">
-        <v>1.035260173471811</v>
+        <v>1.034510185418784</v>
       </c>
       <c r="L8">
-        <v>1.0325018254264</v>
+        <v>1.03210735020035</v>
       </c>
       <c r="M8">
-        <v>1.042727908574611</v>
+        <v>1.042407718578235</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04238866166708</v>
+        <v>1.042135253370522</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036025231249151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035506002209722</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021222097617498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9975278916178968</v>
+        <v>0.9972824626646072</v>
       </c>
       <c r="D9">
-        <v>1.018704000176216</v>
+        <v>1.018317907750102</v>
       </c>
       <c r="E9">
-        <v>1.014701009705527</v>
+        <v>1.014517116117865</v>
       </c>
       <c r="F9">
-        <v>1.025356655345537</v>
+        <v>1.025204424541662</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044262399572433</v>
+        <v>1.044120264487313</v>
       </c>
       <c r="J9">
-        <v>1.023168249442287</v>
+        <v>1.022931550498366</v>
       </c>
       <c r="K9">
-        <v>1.031500735559344</v>
+        <v>1.031120619720921</v>
       </c>
       <c r="L9">
-        <v>1.027559992525611</v>
+        <v>1.027378973617156</v>
       </c>
       <c r="M9">
-        <v>1.03805131100366</v>
+        <v>1.037901397178812</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038687448431166</v>
+        <v>1.038568801381055</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03336384951098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033105869967787</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020536019174316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9913937590080861</v>
+        <v>0.9913316864946699</v>
       </c>
       <c r="D10">
-        <v>1.014827720844963</v>
+        <v>1.014699031767524</v>
       </c>
       <c r="E10">
-        <v>1.010035435762765</v>
+        <v>1.010001400640956</v>
       </c>
       <c r="F10">
-        <v>1.020946465386352</v>
+        <v>1.020913937930161</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04318266633239</v>
+        <v>1.04315028119926</v>
       </c>
       <c r="J10">
-        <v>1.01995304446322</v>
+        <v>1.019893496030334</v>
       </c>
       <c r="K10">
-        <v>1.028934319486777</v>
+        <v>1.028807867240907</v>
       </c>
       <c r="L10">
-        <v>1.02422583087235</v>
+        <v>1.024192394564778</v>
       </c>
       <c r="M10">
-        <v>1.034947550916346</v>
+        <v>1.034915580050822</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036282595796265</v>
+        <v>1.036257294436014</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031566109311363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03148917399151</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02006021809515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9892262853686613</v>
+        <v>0.9892135982251883</v>
       </c>
       <c r="D11">
-        <v>1.013531863912974</v>
+        <v>1.013476925396634</v>
       </c>
       <c r="E11">
-        <v>1.008674233580164</v>
+        <v>1.008678663849545</v>
       </c>
       <c r="F11">
-        <v>1.020048483882805</v>
+        <v>1.020047270521766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04293546660934</v>
+        <v>1.042931903767762</v>
       </c>
       <c r="J11">
-        <v>1.019054234913894</v>
+        <v>1.019042092122625</v>
       </c>
       <c r="K11">
-        <v>1.028203022719432</v>
+        <v>1.028149084645514</v>
       </c>
       <c r="L11">
-        <v>1.023434399798236</v>
+        <v>1.023438748381827</v>
       </c>
       <c r="M11">
-        <v>1.034601966596002</v>
+        <v>1.03460077496387</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036446337700572</v>
+        <v>1.03644539513371</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031082061365603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031059623579865</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019956473799992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9886157390985036</v>
+        <v>0.9886086201686135</v>
       </c>
       <c r="D12">
-        <v>1.013194905891726</v>
+        <v>1.013151629407321</v>
       </c>
       <c r="E12">
-        <v>1.008418638423322</v>
+        <v>1.008426119210575</v>
       </c>
       <c r="F12">
-        <v>1.020092748345808</v>
+        <v>1.020094442438756</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042928803935397</v>
+        <v>1.042928151303583</v>
       </c>
       <c r="J12">
-        <v>1.018909839971577</v>
+        <v>1.018903032338154</v>
       </c>
       <c r="K12">
-        <v>1.02807360442581</v>
+        <v>1.02803112917942</v>
       </c>
       <c r="L12">
-        <v>1.023386308583407</v>
+        <v>1.023393649159215</v>
       </c>
       <c r="M12">
-        <v>1.034844868170172</v>
+        <v>1.034846531449292</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036965474393194</v>
+        <v>1.036966789580158</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030990557545658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030976226187163</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019956227495433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.989175656704485</v>
+        <v>0.9891401711793216</v>
       </c>
       <c r="D13">
-        <v>1.013588651794342</v>
+        <v>1.013509426178468</v>
       </c>
       <c r="E13">
-        <v>1.009009127509676</v>
+        <v>1.008992226407567</v>
       </c>
       <c r="F13">
-        <v>1.020885257826378</v>
+        <v>1.020867911028433</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043118780663783</v>
+        <v>1.043101034077162</v>
       </c>
       <c r="J13">
-        <v>1.019350967978992</v>
+        <v>1.019317026034729</v>
       </c>
       <c r="K13">
-        <v>1.028416888578624</v>
+        <v>1.028339123453909</v>
       </c>
       <c r="L13">
-        <v>1.023922277264758</v>
+        <v>1.0239056914037</v>
       </c>
       <c r="M13">
-        <v>1.035580248443449</v>
+        <v>1.035563215484908</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037823990724146</v>
+        <v>1.037810525828115</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031230767481953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031191236947092</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020041996731373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9900976905643183</v>
+        <v>0.9900271946245038</v>
       </c>
       <c r="D14">
-        <v>1.014196579845028</v>
+        <v>1.014070801726118</v>
       </c>
       <c r="E14">
-        <v>1.009804304010889</v>
+        <v>1.009758109568924</v>
       </c>
       <c r="F14">
-        <v>1.021777081569518</v>
+        <v>1.021736629955021</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043340850888673</v>
+        <v>1.043302172797872</v>
       </c>
       <c r="J14">
-        <v>1.019924551427853</v>
+        <v>1.019857077160824</v>
       </c>
       <c r="K14">
-        <v>1.028872269715973</v>
+        <v>1.028748781336694</v>
       </c>
       <c r="L14">
-        <v>1.02456039367422</v>
+        <v>1.024515049655905</v>
       </c>
       <c r="M14">
-        <v>1.03631612284116</v>
+        <v>1.036276393433709</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038579182038843</v>
+        <v>1.038547779388521</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031554171833323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031482446152602</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020141301053755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9905825549108945</v>
+        <v>0.9904959450600272</v>
       </c>
       <c r="D15">
-        <v>1.014509960940541</v>
+        <v>1.014362178061622</v>
       </c>
       <c r="E15">
-        <v>1.010191560441696</v>
+        <v>1.010132090513618</v>
       </c>
       <c r="F15">
-        <v>1.022173224539187</v>
+        <v>1.022122237226783</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043441386360504</v>
+        <v>1.043393110123546</v>
       </c>
       <c r="J15">
-        <v>1.020198931654886</v>
+        <v>1.020116001302278</v>
       </c>
       <c r="K15">
-        <v>1.029092894675788</v>
+        <v>1.028947781661019</v>
       </c>
       <c r="L15">
-        <v>1.024852930249389</v>
+        <v>1.02479454658125</v>
       </c>
       <c r="M15">
-        <v>1.036619085178208</v>
+        <v>1.036569001066703</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03885620945885</v>
+        <v>1.038816623354806</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031716062328214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031629617154492</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020186160777756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9930694119785195</v>
+        <v>0.9929102864417503</v>
       </c>
       <c r="D16">
-        <v>1.016073779213409</v>
+        <v>1.015823628711912</v>
       </c>
       <c r="E16">
-        <v>1.01205537320347</v>
+        <v>1.011937182999612</v>
       </c>
       <c r="F16">
-        <v>1.023917530553382</v>
+        <v>1.023819596724821</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043876404671496</v>
+        <v>1.043785036559546</v>
       </c>
       <c r="J16">
-        <v>1.021483053449953</v>
+        <v>1.02133034779442</v>
       </c>
       <c r="K16">
-        <v>1.030122913382328</v>
+        <v>1.029877085109932</v>
       </c>
       <c r="L16">
-        <v>1.026174274244029</v>
+        <v>1.026058146901153</v>
       </c>
       <c r="M16">
-        <v>1.037832518974085</v>
+        <v>1.037736243679996</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039776559523406</v>
+        <v>1.039700462074801</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032447510753382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032290152454721</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020376757690907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,105 +1369,123 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9944965075930383</v>
+        <v>0.9943001595636479</v>
       </c>
       <c r="D17">
-        <v>1.016957485949515</v>
+        <v>1.016653241239607</v>
       </c>
       <c r="E17">
-        <v>1.013070470071103</v>
+        <v>1.012922567197124</v>
       </c>
       <c r="F17">
-        <v>1.024784727283415</v>
+        <v>1.024662869841391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044091638358854</v>
+        <v>1.043978149676889</v>
       </c>
       <c r="J17">
-        <v>1.022167832168034</v>
+        <v>1.021979150201048</v>
       </c>
       <c r="K17">
-        <v>1.030674581294098</v>
+        <v>1.0303754461596</v>
       </c>
       <c r="L17">
-        <v>1.026853143084246</v>
+        <v>1.026707748302815</v>
       </c>
       <c r="M17">
-        <v>1.03837171140566</v>
+        <v>1.038251859988964</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040073623668534</v>
+        <v>1.039978881843825</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032840164171127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032645362044436</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020470313717986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9951310332685853</v>
+        <v>0.9949249100722846</v>
       </c>
       <c r="D18">
-        <v>1.017321252082992</v>
+        <v>1.017000313175559</v>
       </c>
       <c r="E18">
-        <v>1.013419786891879</v>
+        <v>1.013264897065248</v>
       </c>
       <c r="F18">
-        <v>1.02492616402041</v>
+        <v>1.024798360710621</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044128963614263</v>
+        <v>1.04400982823822</v>
       </c>
       <c r="J18">
-        <v>1.022379254709983</v>
+        <v>1.022181028830835</v>
       </c>
       <c r="K18">
-        <v>1.030847549415255</v>
+        <v>1.030531912376149</v>
       </c>
       <c r="L18">
-        <v>1.027010829267909</v>
+        <v>1.026858523103856</v>
       </c>
       <c r="M18">
-        <v>1.038328076702711</v>
+        <v>1.038202344138369</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039801237891224</v>
+        <v>1.039701826302152</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032950769897723</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032743161857203</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020484116508701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.995062295457624</v>
+        <v>0.9948702224823446</v>
       </c>
       <c r="D19">
-        <v>1.017235317177928</v>
+        <v>1.016930581356573</v>
       </c>
       <c r="E19">
-        <v>1.013173427161151</v>
+        <v>1.013031224768442</v>
       </c>
       <c r="F19">
-        <v>1.024411450955175</v>
+        <v>1.024293292604767</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044017236034037</v>
+        <v>1.043906788534364</v>
       </c>
       <c r="J19">
-        <v>1.022177423404572</v>
+        <v>1.021992667614855</v>
       </c>
       <c r="K19">
-        <v>1.030700048952506</v>
+        <v>1.030400321417323</v>
       </c>
       <c r="L19">
-        <v>1.026705234208087</v>
+        <v>1.026565392596452</v>
       </c>
       <c r="M19">
-        <v>1.037759349465626</v>
+        <v>1.037643097815809</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039025667207887</v>
+        <v>1.038933721680952</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032852905924795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032657173212701</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020433208609362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9930101574427532</v>
+        <v>0.9928991134907345</v>
       </c>
       <c r="D20">
-        <v>1.015864998586041</v>
+        <v>1.015668294694435</v>
       </c>
       <c r="E20">
-        <v>1.011266155610595</v>
+        <v>1.011192078996196</v>
       </c>
       <c r="F20">
-        <v>1.022108291007866</v>
+        <v>1.022043784857426</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043482453450205</v>
+        <v>1.043420902332603</v>
       </c>
       <c r="J20">
-        <v>1.020813210540922</v>
+        <v>1.020706533551407</v>
       </c>
       <c r="K20">
-        <v>1.02963450190435</v>
+        <v>1.029441119669064</v>
       </c>
       <c r="L20">
-        <v>1.025113754368538</v>
+        <v>1.02504094319889</v>
       </c>
       <c r="M20">
-        <v>1.03577322189795</v>
+        <v>1.035709787785715</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03692545208036</v>
+        <v>1.036875250481023</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032103456535121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031983308740145</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020195102048148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9883031915407422</v>
+        <v>0.9883378186535001</v>
       </c>
       <c r="D21">
-        <v>1.012883172026549</v>
+        <v>1.012888418464441</v>
       </c>
       <c r="E21">
-        <v>1.007645127422309</v>
+        <v>1.007690179290774</v>
       </c>
       <c r="F21">
-        <v>1.018612429563413</v>
+        <v>1.018643033441727</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04260941564973</v>
+        <v>1.042634328481849</v>
       </c>
       <c r="J21">
-        <v>1.018298224542447</v>
+        <v>1.018331354602749</v>
       </c>
       <c r="K21">
-        <v>1.027624511443618</v>
+        <v>1.027629661752171</v>
       </c>
       <c r="L21">
-        <v>1.02248309377513</v>
+        <v>1.022527308979487</v>
       </c>
       <c r="M21">
-        <v>1.033249559957053</v>
+        <v>1.033279611275806</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034887164706402</v>
+        <v>1.034910948497026</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030685549540414</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030706109703904</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019811264693234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9853092192590903</v>
+        <v>0.9854370107570786</v>
       </c>
       <c r="D22">
-        <v>1.010988943557801</v>
+        <v>1.011122368373687</v>
       </c>
       <c r="E22">
-        <v>1.005366687170267</v>
+        <v>1.005487686799971</v>
       </c>
       <c r="F22">
-        <v>1.01643992454183</v>
+        <v>1.016531234710464</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042049149916514</v>
+        <v>1.042128816402823</v>
       </c>
       <c r="J22">
-        <v>1.016708026972491</v>
+        <v>1.016829967725246</v>
       </c>
       <c r="K22">
-        <v>1.026345805978457</v>
+        <v>1.02647666277856</v>
       </c>
       <c r="L22">
-        <v>1.020832573392707</v>
+        <v>1.020951209821586</v>
       </c>
       <c r="M22">
-        <v>1.031692590050167</v>
+        <v>1.031782167243728</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033654916645676</v>
+        <v>1.033725811666574</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029767858373201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029875998982917</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019565011204988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9868923976279127</v>
+        <v>0.9869708822114404</v>
       </c>
       <c r="D23">
-        <v>1.01198393354119</v>
+        <v>1.012049471105941</v>
       </c>
       <c r="E23">
-        <v>1.006569800080953</v>
+        <v>1.006650646116294</v>
       </c>
       <c r="F23">
-        <v>1.01758833536485</v>
+        <v>1.017647540827786</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042342303259529</v>
+        <v>1.04239304868408</v>
       </c>
       <c r="J23">
-        <v>1.017544868818496</v>
+        <v>1.017619866837949</v>
       </c>
       <c r="K23">
-        <v>1.02701426498558</v>
+        <v>1.027078573360608</v>
       </c>
       <c r="L23">
-        <v>1.021702399307804</v>
+        <v>1.021781707657764</v>
       </c>
       <c r="M23">
-        <v>1.032514299298924</v>
+        <v>1.032572410211924</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034305250375257</v>
+        <v>1.03435124166494</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030230801854914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030290940965907</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019692591561946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9930204775749996</v>
+        <v>0.9929107127664114</v>
       </c>
       <c r="D24">
-        <v>1.015855985871804</v>
+        <v>1.015660418562243</v>
       </c>
       <c r="E24">
-        <v>1.011245470419204</v>
+        <v>1.01117262096836</v>
       </c>
       <c r="F24">
-        <v>1.022052196767095</v>
+        <v>1.0219886098556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043464703683171</v>
+        <v>1.043403956319217</v>
       </c>
       <c r="J24">
-        <v>1.020789871145137</v>
+        <v>1.020684416785495</v>
       </c>
       <c r="K24">
-        <v>1.029610259035322</v>
+        <v>1.029417990021136</v>
       </c>
       <c r="L24">
-        <v>1.025077939645385</v>
+        <v>1.025006333140083</v>
       </c>
       <c r="M24">
-        <v>1.035702810668119</v>
+        <v>1.035640279311937</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036828760770747</v>
+        <v>1.036779271139453</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032058771154702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031936730991016</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020185251643403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9998972473199143</v>
+        <v>0.9995813352618468</v>
       </c>
       <c r="D25">
-        <v>1.020220371343111</v>
+        <v>1.01973491604274</v>
       </c>
       <c r="E25">
-        <v>1.016525603429787</v>
+        <v>1.016283878998639</v>
       </c>
       <c r="F25">
-        <v>1.027099102387404</v>
+        <v>1.026900740837767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04468405933669</v>
+        <v>1.044499289482501</v>
       </c>
       <c r="J25">
-        <v>1.024428069997414</v>
+        <v>1.024122797364731</v>
       </c>
       <c r="K25">
-        <v>1.032512696679469</v>
+        <v>1.032034407029793</v>
       </c>
       <c r="L25">
-        <v>1.028872684990511</v>
+        <v>1.028634560545208</v>
       </c>
       <c r="M25">
-        <v>1.039290815990066</v>
+        <v>1.039095331844291</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03966843532533</v>
+        <v>1.039513722535365</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034108086124595</v>
+        <v>1.033783500467668</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020725370972518</v>
       </c>
     </row>
   </sheetData>
